--- a/Data/Input/TestCases.xlsx
+++ b/Data/Input/TestCases.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RTA_Github\RTA_DNM\Data\Input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="756">
   <si>
     <t>TC_ID</t>
   </si>
@@ -2280,12 +2285,15 @@
   </si>
   <si>
     <t>DN #</t>
+  </si>
+  <si>
+    <t>https://uat.dnm.westhighland.net*qamentor3admin*1Aa0000000012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8">
     <font>
       <sz val="10"/>
@@ -2475,7 +2483,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2602,6 +2610,10 @@
     <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2899,17 +2911,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F165" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D135" sqref="D135:D180"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2969,16 +2981,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="16" t="s">
         <v>12</v>
       </c>
@@ -3001,10 +3013,10 @@
       <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A3" s="45"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
@@ -3021,14 +3033,14 @@
       <c r="J3" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A4" s="45"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="16" t="s">
         <v>14</v>
       </c>
@@ -3045,14 +3057,14 @@
       <c r="J4" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A5" s="45"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="51"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="16" t="s">
         <v>15</v>
       </c>
@@ -3069,14 +3081,14 @@
       <c r="J5" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="16" t="s">
         <v>16</v>
       </c>
@@ -3093,14 +3105,14 @@
       <c r="J6" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" s="11" customFormat="1" ht="25.5">
-      <c r="A7" s="45"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="51"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="53"/>
       <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
@@ -3117,14 +3129,14 @@
       <c r="J7" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" s="11" customFormat="1" ht="25.5">
-      <c r="A8" s="45"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="16" t="s">
         <v>18</v>
       </c>
@@ -3141,14 +3153,14 @@
       <c r="J8" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="K8" s="15"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" s="11" customFormat="1" ht="25.5">
-      <c r="A9" s="45"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="51"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
@@ -3165,14 +3177,14 @@
       <c r="J9" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="51"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="16" t="s">
         <v>20</v>
       </c>
@@ -3189,14 +3201,14 @@
       <c r="J10" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="24"/>
       <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="51"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="53"/>
       <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
@@ -3213,14 +3225,14 @@
       <c r="J11" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="K11" s="15"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="51"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="16" t="s">
         <v>22</v>
       </c>
@@ -3237,14 +3249,14 @@
       <c r="J12" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="51"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="16" t="s">
         <v>23</v>
       </c>
@@ -3261,14 +3273,14 @@
       <c r="J13" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="51"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="16" t="s">
         <v>24</v>
       </c>
@@ -3285,14 +3297,14 @@
       <c r="J14" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="51"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="33" t="s">
         <v>25</v>
       </c>
@@ -3309,14 +3321,14 @@
       <c r="J15" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="52"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="33" t="s">
         <v>55</v>
       </c>
@@ -3337,16 +3349,16 @@
       <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" s="22" customFormat="1" ht="45">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
@@ -3369,10 +3381,10 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A18" s="62"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="60"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
@@ -3393,10 +3405,10 @@
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A19" s="62"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="60"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
@@ -3417,10 +3429,10 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A20" s="62"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="60"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="62"/>
       <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
@@ -3441,10 +3453,10 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="60"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
@@ -3465,10 +3477,10 @@
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" s="11" customFormat="1" ht="25.5">
-      <c r="A22" s="62"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="60"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="3" t="s">
         <v>17</v>
       </c>
@@ -3489,10 +3501,10 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="60"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="3" t="s">
         <v>18</v>
       </c>
@@ -3513,10 +3525,10 @@
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="60"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="3" t="s">
         <v>19</v>
       </c>
@@ -3537,10 +3549,10 @@
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="60"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
@@ -3561,10 +3573,10 @@
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A26" s="62"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="60"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
@@ -3585,10 +3597,10 @@
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A27" s="62"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="60"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="3" t="s">
         <v>22</v>
       </c>
@@ -3609,10 +3621,10 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A28" s="62"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="61"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="3" t="s">
         <v>23</v>
       </c>
@@ -3633,24 +3645,24 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>704</v>
+      <c r="G29" s="45" t="s">
+        <v>755</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>120</v>
@@ -3661,16 +3673,14 @@
       <c r="J29" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K29" s="44"/>
       <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A30" s="45"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="51"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="16" t="s">
         <v>13</v>
       </c>
@@ -3687,16 +3697,14 @@
       <c r="J30" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K30" s="44"/>
       <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" ht="30">
-      <c r="A31" s="45"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="51"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="16" t="s">
         <v>14</v>
       </c>
@@ -3713,16 +3721,14 @@
       <c r="J31" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K31" s="44"/>
       <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A32" s="45"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="51"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="16" t="s">
         <v>15</v>
       </c>
@@ -3741,16 +3747,14 @@
       <c r="J32" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K32" s="44"/>
       <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A33" s="45"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="51"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="16" t="s">
         <v>16</v>
       </c>
@@ -3769,16 +3773,14 @@
       <c r="J33" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="K33" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K33" s="44"/>
       <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12" s="11" customFormat="1" ht="30">
-      <c r="A34" s="45"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="51"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="16" t="s">
         <v>17</v>
       </c>
@@ -3797,16 +3799,14 @@
       <c r="J34" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K34" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K34" s="44"/>
       <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A35" s="45"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="51"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="16" t="s">
         <v>18</v>
       </c>
@@ -3825,16 +3825,14 @@
       <c r="J35" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="K35" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K35" s="44"/>
       <c r="L35" s="17"/>
     </row>
     <row r="36" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A36" s="45"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="51"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="53"/>
       <c r="E36" s="25" t="s">
         <v>19</v>
       </c>
@@ -3853,16 +3851,14 @@
       <c r="J36" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K36" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K36" s="44"/>
       <c r="L36" s="23"/>
     </row>
     <row r="37" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A37" s="45"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="51"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="25" t="s">
         <v>20</v>
       </c>
@@ -3881,16 +3877,14 @@
       <c r="J37" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="K37" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K37" s="44"/>
       <c r="L37" s="23"/>
     </row>
     <row r="38" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A38" s="45"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="51"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="25" t="s">
         <v>21</v>
       </c>
@@ -3909,16 +3903,14 @@
       <c r="J38" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K38" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K38" s="44"/>
       <c r="L38" s="23"/>
     </row>
     <row r="39" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A39" s="45"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="51"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="25" t="s">
         <v>22</v>
       </c>
@@ -3937,16 +3929,14 @@
       <c r="J39" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K39" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K39" s="44"/>
       <c r="L39" s="23"/>
     </row>
     <row r="40" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A40" s="45"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="51"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="25" t="s">
         <v>23</v>
       </c>
@@ -3965,16 +3955,14 @@
       <c r="J40" s="23" t="s">
         <v>722</v>
       </c>
-      <c r="K40" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K40" s="44"/>
       <c r="L40" s="23"/>
     </row>
     <row r="41" spans="1:12" s="11" customFormat="1" ht="30">
-      <c r="A41" s="45"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="51"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="25" t="s">
         <v>24</v>
       </c>
@@ -3993,16 +3981,14 @@
       <c r="J41" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K41" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K41" s="44"/>
       <c r="L41" s="23"/>
     </row>
     <row r="42" spans="1:12" s="11" customFormat="1" ht="30">
-      <c r="A42" s="45"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="51"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="25" t="s">
         <v>25</v>
       </c>
@@ -4021,16 +4007,14 @@
       <c r="J42" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K42" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K42" s="44"/>
       <c r="L42" s="23"/>
     </row>
     <row r="43" spans="1:12" s="11" customFormat="1" ht="30">
-      <c r="A43" s="45"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="51"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="53"/>
       <c r="E43" s="25" t="s">
         <v>55</v>
       </c>
@@ -4049,16 +4033,14 @@
       <c r="J43" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="K43" s="24" t="s">
-        <v>647</v>
-      </c>
+      <c r="K43" s="44"/>
       <c r="L43" s="17"/>
     </row>
     <row r="44" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A44" s="46"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="52"/>
+      <c r="A44" s="48"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="33" t="s">
         <v>144</v>
       </c>
@@ -4075,22 +4057,22 @@
       <c r="J44" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="K44" s="44"/>
+      <c r="L44" s="23"/>
+    </row>
+    <row r="45" spans="1:12" s="11" customFormat="1" ht="45">
+      <c r="A45" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="61" t="s">
         <v>647</v>
       </c>
-      <c r="L44" s="23"/>
-    </row>
-    <row r="45" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A45" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="59"/>
       <c r="E45" s="7" t="s">
         <v>12</v>
       </c>
@@ -4109,16 +4091,16 @@
       <c r="J45" s="29" t="s">
         <v>606</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="44" t="s">
         <v>647</v>
       </c>
       <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:12" s="11" customFormat="1" ht="30">
-      <c r="A46" s="54"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="60"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="62"/>
       <c r="E46" s="7" t="s">
         <v>13</v>
       </c>
@@ -4135,16 +4117,16 @@
       <c r="J46" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="44" t="s">
         <v>647</v>
       </c>
       <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:12" s="11" customFormat="1" ht="30">
-      <c r="A47" s="54"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="60"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="62"/>
       <c r="E47" s="7" t="s">
         <v>14</v>
       </c>
@@ -4163,16 +4145,16 @@
       <c r="J47" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="44" t="s">
         <v>647</v>
       </c>
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A48" s="54"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="60"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="62"/>
       <c r="E48" s="28" t="s">
         <v>15</v>
       </c>
@@ -4191,16 +4173,16 @@
       <c r="J48" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="44" t="s">
         <v>647</v>
       </c>
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A49" s="54"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="60"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="62"/>
       <c r="E49" s="28" t="s">
         <v>16</v>
       </c>
@@ -4219,16 +4201,16 @@
       <c r="J49" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="K49" s="44" t="s">
         <v>647</v>
       </c>
       <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12" s="11" customFormat="1" ht="75">
-      <c r="A50" s="54"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="60"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="62"/>
       <c r="E50" s="28" t="s">
         <v>17</v>
       </c>
@@ -4247,16 +4229,16 @@
       <c r="J50" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="44" t="s">
         <v>647</v>
       </c>
       <c r="L50" s="6"/>
     </row>
     <row r="51" spans="1:12" s="11" customFormat="1" ht="75">
-      <c r="A51" s="54"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="60"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="62"/>
       <c r="E51" s="28" t="s">
         <v>18</v>
       </c>
@@ -4275,16 +4257,16 @@
       <c r="J51" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="44" t="s">
         <v>647</v>
       </c>
       <c r="L51" s="6"/>
     </row>
     <row r="52" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A52" s="54"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="60"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="62"/>
       <c r="E52" s="28" t="s">
         <v>19</v>
       </c>
@@ -4303,16 +4285,16 @@
       <c r="J52" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="K52" s="8" t="s">
+      <c r="K52" s="44" t="s">
         <v>647</v>
       </c>
       <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12" s="11" customFormat="1" ht="75">
-      <c r="A53" s="54"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="60"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="62"/>
       <c r="E53" s="28" t="s">
         <v>20</v>
       </c>
@@ -4331,16 +4313,16 @@
       <c r="J53" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="K53" s="8" t="s">
+      <c r="K53" s="44" t="s">
         <v>647</v>
       </c>
       <c r="L53" s="6"/>
     </row>
     <row r="54" spans="1:12" s="11" customFormat="1" ht="75">
-      <c r="A54" s="54"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="60"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="62"/>
       <c r="E54" s="28" t="s">
         <v>21</v>
       </c>
@@ -4359,16 +4341,16 @@
       <c r="J54" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="44" t="s">
         <v>647</v>
       </c>
       <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" s="11" customFormat="1" ht="30">
-      <c r="A55" s="54"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="60"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="62"/>
       <c r="E55" s="28" t="s">
         <v>22</v>
       </c>
@@ -4387,16 +4369,16 @@
       <c r="J55" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="K55" s="44" t="s">
         <v>647</v>
       </c>
       <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="61"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="31" t="s">
         <v>23</v>
       </c>
@@ -4413,22 +4395,22 @@
       <c r="J56" s="40" t="s">
         <v>625</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="K56" s="44" t="s">
         <v>647</v>
       </c>
       <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D57" s="50"/>
+      <c r="D57" s="52"/>
       <c r="E57" s="16" t="s">
         <v>12</v>
       </c>
@@ -4447,16 +4429,14 @@
       <c r="J57" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="K57" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K57" s="15"/>
       <c r="L57" s="17"/>
     </row>
     <row r="58" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A58" s="67"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="51"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="16" t="s">
         <v>13</v>
       </c>
@@ -4473,16 +4453,14 @@
       <c r="J58" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="K58" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K58" s="15"/>
       <c r="L58" s="17"/>
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A59" s="67"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="51"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="16" t="s">
         <v>14</v>
       </c>
@@ -4499,16 +4477,14 @@
       <c r="J59" s="23" t="s">
         <v>643</v>
       </c>
-      <c r="K59" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K59" s="15"/>
       <c r="L59" s="17"/>
     </row>
     <row r="60" spans="1:12" s="11" customFormat="1" ht="45">
-      <c r="A60" s="67"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="51"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="16" t="s">
         <v>15</v>
       </c>
@@ -4525,16 +4501,14 @@
       <c r="J60" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="K60" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K60" s="15"/>
       <c r="L60" s="17"/>
     </row>
     <row r="61" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A61" s="67"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="51"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="16" t="s">
         <v>16</v>
       </c>
@@ -4551,16 +4525,14 @@
       <c r="J61" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="K61" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K61" s="15"/>
       <c r="L61" s="17"/>
     </row>
     <row r="62" spans="1:12" s="11" customFormat="1" ht="60">
-      <c r="A62" s="67"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="51"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="16" t="s">
         <v>17</v>
       </c>
@@ -4577,16 +4549,14 @@
       <c r="J62" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="K62" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K62" s="15"/>
       <c r="L62" s="17"/>
     </row>
     <row r="63" spans="1:12" s="11" customFormat="1" ht="38.25">
-      <c r="A63" s="68"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="52"/>
+      <c r="A63" s="70"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="54"/>
       <c r="E63" s="35" t="s">
         <v>18</v>
       </c>
@@ -4603,24 +4573,20 @@
       <c r="J63" s="38" t="s">
         <v>625</v>
       </c>
-      <c r="K63" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K63" s="15"/>
       <c r="L63" s="23"/>
     </row>
     <row r="64" spans="1:12" ht="45">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C64" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D64" s="59" t="s">
-        <v>647</v>
-      </c>
+      <c r="D64" s="61"/>
       <c r="E64" s="34" t="s">
         <v>12</v>
       </c>
@@ -4639,16 +4605,14 @@
       <c r="J64" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K64" s="29" t="s">
-        <v>647</v>
-      </c>
+      <c r="K64" s="29"/>
       <c r="L64" s="6"/>
     </row>
     <row r="65" spans="1:12" ht="30">
-      <c r="A65" s="54"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
       <c r="E65" s="34" t="s">
         <v>13</v>
       </c>
@@ -4665,16 +4629,14 @@
       <c r="J65" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="K65" s="29" t="s">
-        <v>647</v>
-      </c>
+      <c r="K65" s="29"/>
       <c r="L65" s="6"/>
     </row>
     <row r="66" spans="1:12" ht="45">
-      <c r="A66" s="54"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
       <c r="E66" s="34" t="s">
         <v>14</v>
       </c>
@@ -4693,16 +4655,14 @@
       <c r="J66" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="K66" s="29" t="s">
-        <v>647</v>
-      </c>
+      <c r="K66" s="29"/>
       <c r="L66" s="6"/>
     </row>
     <row r="67" spans="1:12" ht="45">
-      <c r="A67" s="54"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
       <c r="E67" s="34" t="s">
         <v>15</v>
       </c>
@@ -4721,16 +4681,14 @@
       <c r="J67" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="K67" s="29" t="s">
-        <v>647</v>
-      </c>
+      <c r="K67" s="29"/>
       <c r="L67" s="6"/>
     </row>
     <row r="68" spans="1:12" ht="60">
-      <c r="A68" s="54"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
       <c r="E68" s="34" t="s">
         <v>16</v>
       </c>
@@ -4749,16 +4707,14 @@
       <c r="J68" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="K68" s="29" t="s">
-        <v>647</v>
-      </c>
+      <c r="K68" s="29"/>
       <c r="L68" s="6"/>
     </row>
     <row r="69" spans="1:12" ht="45">
-      <c r="A69" s="54"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
       <c r="E69" s="34" t="s">
         <v>17</v>
       </c>
@@ -4777,16 +4733,14 @@
       <c r="J69" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K69" s="29" t="s">
-        <v>647</v>
-      </c>
+      <c r="K69" s="29"/>
       <c r="L69" s="6"/>
     </row>
     <row r="70" spans="1:12" ht="45">
-      <c r="A70" s="54"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
       <c r="E70" s="34" t="s">
         <v>18</v>
       </c>
@@ -4805,16 +4759,14 @@
       <c r="J70" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K70" s="29" t="s">
-        <v>647</v>
-      </c>
+      <c r="K70" s="29"/>
       <c r="L70" s="6"/>
     </row>
     <row r="71" spans="1:12" ht="30">
-      <c r="A71" s="54"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
+      <c r="A71" s="56"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
       <c r="E71" s="34" t="s">
         <v>19</v>
       </c>
@@ -4833,16 +4785,14 @@
       <c r="J71" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K71" s="29" t="s">
-        <v>647</v>
-      </c>
+      <c r="K71" s="29"/>
       <c r="L71" s="30"/>
     </row>
     <row r="72" spans="1:12" ht="30">
-      <c r="A72" s="54"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
       <c r="E72" s="34" t="s">
         <v>20</v>
       </c>
@@ -4861,16 +4811,14 @@
       <c r="J72" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K72" s="29" t="s">
-        <v>647</v>
-      </c>
+      <c r="K72" s="29"/>
       <c r="L72" s="30"/>
     </row>
     <row r="73" spans="1:12" ht="45">
-      <c r="A73" s="54"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
       <c r="E73" s="34" t="s">
         <v>21</v>
       </c>
@@ -4887,16 +4835,14 @@
       <c r="J73" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K73" s="29" t="s">
-        <v>647</v>
-      </c>
+      <c r="K73" s="29"/>
       <c r="L73" s="30"/>
     </row>
     <row r="74" spans="1:12" ht="38.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="63"/>
       <c r="E74" s="34" t="s">
         <v>22</v>
       </c>
@@ -4913,22 +4859,20 @@
       <c r="J74" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="K74" s="29" t="s">
-        <v>647</v>
-      </c>
+      <c r="K74" s="29"/>
       <c r="L74" s="30"/>
     </row>
     <row r="75" spans="1:12" ht="45">
-      <c r="A75" s="66" t="s">
+      <c r="A75" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D75" s="50"/>
+      <c r="D75" s="52"/>
       <c r="E75" s="33" t="s">
         <v>12</v>
       </c>
@@ -4947,16 +4891,14 @@
       <c r="J75" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K75" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K75" s="15"/>
       <c r="L75" s="23"/>
     </row>
     <row r="76" spans="1:12" ht="30">
-      <c r="A76" s="67"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="51"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="53"/>
       <c r="E76" s="33" t="s">
         <v>13</v>
       </c>
@@ -4973,16 +4915,14 @@
       <c r="J76" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="K76" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K76" s="15"/>
       <c r="L76" s="23"/>
     </row>
     <row r="77" spans="1:12" ht="30">
-      <c r="A77" s="67"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="51"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="53"/>
       <c r="E77" s="33" t="s">
         <v>14</v>
       </c>
@@ -5001,16 +4941,14 @@
       <c r="J77" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="K77" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K77" s="15"/>
       <c r="L77" s="23"/>
     </row>
     <row r="78" spans="1:12" ht="30">
-      <c r="A78" s="67"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="51"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="53"/>
       <c r="E78" s="33" t="s">
         <v>15</v>
       </c>
@@ -5029,16 +4967,14 @@
       <c r="J78" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="K78" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K78" s="15"/>
       <c r="L78" s="23"/>
     </row>
     <row r="79" spans="1:12" ht="30">
-      <c r="A79" s="67"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="51"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="53"/>
       <c r="E79" s="33" t="s">
         <v>16</v>
       </c>
@@ -5057,16 +4993,14 @@
       <c r="J79" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="K79" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K79" s="15"/>
       <c r="L79" s="23"/>
     </row>
     <row r="80" spans="1:12" ht="30">
-      <c r="A80" s="67"/>
-      <c r="B80" s="48"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="51"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="53"/>
       <c r="E80" s="33" t="s">
         <v>17</v>
       </c>
@@ -5085,16 +5019,14 @@
       <c r="J80" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="K80" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K80" s="15"/>
       <c r="L80" s="23"/>
     </row>
     <row r="81" spans="1:12" ht="45">
-      <c r="A81" s="67"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="51"/>
+      <c r="A81" s="69"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="53"/>
       <c r="E81" s="33" t="s">
         <v>18</v>
       </c>
@@ -5113,16 +5045,14 @@
       <c r="J81" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="K81" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K81" s="15"/>
       <c r="L81" s="23"/>
     </row>
     <row r="82" spans="1:12" ht="30">
-      <c r="A82" s="67"/>
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="51"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="53"/>
       <c r="E82" s="33" t="s">
         <v>19</v>
       </c>
@@ -5141,16 +5071,14 @@
       <c r="J82" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="K82" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K82" s="15"/>
       <c r="L82" s="23"/>
     </row>
     <row r="83" spans="1:12" ht="30">
-      <c r="A83" s="67"/>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="51"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50"/>
+      <c r="D83" s="53"/>
       <c r="E83" s="33" t="s">
         <v>20</v>
       </c>
@@ -5169,16 +5097,14 @@
       <c r="J83" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="K83" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K83" s="15"/>
       <c r="L83" s="23"/>
     </row>
     <row r="84" spans="1:12" ht="45">
-      <c r="A84" s="67"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="51"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="53"/>
       <c r="E84" s="33" t="s">
         <v>21</v>
       </c>
@@ -5197,16 +5123,14 @@
       <c r="J84" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="K84" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K84" s="15"/>
       <c r="L84" s="23"/>
     </row>
     <row r="85" spans="1:12" ht="45">
-      <c r="A85" s="67"/>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="51"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="53"/>
       <c r="E85" s="33" t="s">
         <v>22</v>
       </c>
@@ -5225,16 +5149,14 @@
       <c r="J85" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="K85" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K85" s="15"/>
       <c r="L85" s="23"/>
     </row>
     <row r="86" spans="1:12" ht="45">
-      <c r="A86" s="67"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="51"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="53"/>
       <c r="E86" s="33" t="s">
         <v>23</v>
       </c>
@@ -5253,16 +5175,14 @@
       <c r="J86" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="K86" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K86" s="15"/>
       <c r="L86" s="23"/>
     </row>
     <row r="87" spans="1:12" ht="45">
-      <c r="A87" s="67"/>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="51"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="53"/>
       <c r="E87" s="33" t="s">
         <v>24</v>
       </c>
@@ -5281,16 +5201,14 @@
       <c r="J87" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="K87" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K87" s="15"/>
       <c r="L87" s="23"/>
     </row>
     <row r="88" spans="1:12" ht="45">
-      <c r="A88" s="67"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="51"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="53"/>
       <c r="E88" s="33" t="s">
         <v>25</v>
       </c>
@@ -5309,16 +5227,14 @@
       <c r="J88" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="K88" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K88" s="15"/>
       <c r="L88" s="23"/>
     </row>
     <row r="89" spans="1:12" ht="45">
-      <c r="A89" s="67"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="51"/>
+      <c r="A89" s="69"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="53"/>
       <c r="E89" s="33" t="s">
         <v>55</v>
       </c>
@@ -5337,16 +5253,14 @@
       <c r="J89" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="K89" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K89" s="15"/>
       <c r="L89" s="23"/>
     </row>
     <row r="90" spans="1:12" ht="45">
-      <c r="A90" s="67"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="51"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="53"/>
       <c r="E90" s="33" t="s">
         <v>144</v>
       </c>
@@ -5365,16 +5279,14 @@
       <c r="J90" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="K90" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K90" s="15"/>
       <c r="L90" s="23"/>
     </row>
     <row r="91" spans="1:12" ht="45">
-      <c r="A91" s="67"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="51"/>
+      <c r="A91" s="69"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="53"/>
       <c r="E91" s="33" t="s">
         <v>166</v>
       </c>
@@ -5393,16 +5305,14 @@
       <c r="J91" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="K91" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K91" s="15"/>
       <c r="L91" s="23"/>
     </row>
     <row r="92" spans="1:12" ht="30">
-      <c r="A92" s="67"/>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="51"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="53"/>
       <c r="E92" s="33" t="s">
         <v>167</v>
       </c>
@@ -5421,16 +5331,14 @@
       <c r="J92" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="K92" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K92" s="15"/>
       <c r="L92" s="23"/>
     </row>
     <row r="93" spans="1:12" ht="30">
-      <c r="A93" s="67"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="51"/>
+      <c r="A93" s="69"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="53"/>
       <c r="E93" s="33" t="s">
         <v>168</v>
       </c>
@@ -5449,16 +5357,14 @@
       <c r="J93" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="K93" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K93" s="15"/>
       <c r="L93" s="23"/>
     </row>
     <row r="94" spans="1:12" ht="30">
-      <c r="A94" s="67"/>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="51"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="53"/>
       <c r="E94" s="33" t="s">
         <v>169</v>
       </c>
@@ -5477,16 +5383,14 @@
       <c r="J94" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="K94" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K94" s="15"/>
       <c r="L94" s="23"/>
     </row>
     <row r="95" spans="1:12" ht="45">
-      <c r="A95" s="67"/>
-      <c r="B95" s="48"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="51"/>
+      <c r="A95" s="69"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="53"/>
       <c r="E95" s="33" t="s">
         <v>178</v>
       </c>
@@ -5505,16 +5409,14 @@
       <c r="J95" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="K95" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K95" s="15"/>
       <c r="L95" s="23"/>
     </row>
     <row r="96" spans="1:12" ht="30">
-      <c r="A96" s="67"/>
-      <c r="B96" s="48"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="51"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="50"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="53"/>
       <c r="E96" s="33" t="s">
         <v>179</v>
       </c>
@@ -5533,16 +5435,14 @@
       <c r="J96" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="K96" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K96" s="15"/>
       <c r="L96" s="23"/>
     </row>
     <row r="97" spans="1:12" ht="30">
-      <c r="A97" s="67"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="51"/>
+      <c r="A97" s="69"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="53"/>
       <c r="E97" s="33" t="s">
         <v>180</v>
       </c>
@@ -5561,16 +5461,14 @@
       <c r="J97" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="K97" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K97" s="15"/>
       <c r="L97" s="23"/>
     </row>
     <row r="98" spans="1:12" ht="30">
-      <c r="A98" s="67"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="51"/>
+      <c r="A98" s="69"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="53"/>
       <c r="E98" s="33" t="s">
         <v>184</v>
       </c>
@@ -5589,16 +5487,14 @@
       <c r="J98" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="K98" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K98" s="15"/>
       <c r="L98" s="23"/>
     </row>
     <row r="99" spans="1:12" ht="38.25">
-      <c r="A99" s="68"/>
-      <c r="B99" s="49"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="52"/>
+      <c r="A99" s="70"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="54"/>
       <c r="E99" s="33" t="s">
         <v>185</v>
       </c>
@@ -5615,22 +5511,20 @@
       <c r="J99" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="K99" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K99" s="15"/>
       <c r="L99" s="23"/>
     </row>
     <row r="100" spans="1:12" ht="45">
-      <c r="A100" s="53" t="s">
+      <c r="A100" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="B100" s="56" t="s">
+      <c r="B100" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="C100" s="56" t="s">
+      <c r="C100" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="D100" s="59"/>
+      <c r="D100" s="61"/>
       <c r="E100" s="31" t="s">
         <v>12</v>
       </c>
@@ -5649,16 +5543,14 @@
       <c r="J100" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K100" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K100" s="8"/>
       <c r="L100" s="6"/>
     </row>
     <row r="101" spans="1:12" ht="30">
-      <c r="A101" s="54"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="60"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="62"/>
       <c r="E101" s="31" t="s">
         <v>13</v>
       </c>
@@ -5675,16 +5567,14 @@
       <c r="J101" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="K101" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K101" s="8"/>
       <c r="L101" s="6"/>
     </row>
     <row r="102" spans="1:12" ht="30">
-      <c r="A102" s="54"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="60"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="62"/>
       <c r="E102" s="31" t="s">
         <v>14</v>
       </c>
@@ -5701,16 +5591,14 @@
       <c r="J102" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="K102" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K102" s="8"/>
       <c r="L102" s="6"/>
     </row>
     <row r="103" spans="1:12" ht="30">
-      <c r="A103" s="54"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="60"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="59"/>
+      <c r="D103" s="62"/>
       <c r="E103" s="31" t="s">
         <v>15</v>
       </c>
@@ -5729,16 +5617,14 @@
       <c r="J103" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="K103" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K103" s="8"/>
       <c r="L103" s="6"/>
     </row>
     <row r="104" spans="1:12" ht="30">
-      <c r="A104" s="54"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="60"/>
+      <c r="A104" s="56"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="62"/>
       <c r="E104" s="31" t="s">
         <v>16</v>
       </c>
@@ -5757,16 +5643,14 @@
       <c r="J104" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="K104" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K104" s="8"/>
       <c r="L104" s="6"/>
     </row>
     <row r="105" spans="1:12" ht="30">
-      <c r="A105" s="54"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="60"/>
+      <c r="A105" s="56"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="62"/>
       <c r="E105" s="31" t="s">
         <v>17</v>
       </c>
@@ -5785,16 +5669,14 @@
       <c r="J105" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="K105" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K105" s="8"/>
       <c r="L105" s="6"/>
     </row>
     <row r="106" spans="1:12" ht="30">
-      <c r="A106" s="54"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="60"/>
+      <c r="A106" s="56"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="59"/>
+      <c r="D106" s="62"/>
       <c r="E106" s="31" t="s">
         <v>18</v>
       </c>
@@ -5813,16 +5695,14 @@
       <c r="J106" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="K106" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K106" s="8"/>
       <c r="L106" s="6"/>
     </row>
     <row r="107" spans="1:12" ht="30">
-      <c r="A107" s="54"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="60"/>
+      <c r="A107" s="56"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="62"/>
       <c r="E107" s="31" t="s">
         <v>19</v>
       </c>
@@ -5841,16 +5721,14 @@
       <c r="J107" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="K107" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K107" s="8"/>
       <c r="L107" s="6"/>
     </row>
     <row r="108" spans="1:12" ht="45">
-      <c r="A108" s="54"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="60"/>
+      <c r="A108" s="56"/>
+      <c r="B108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="62"/>
       <c r="E108" s="31" t="s">
         <v>20</v>
       </c>
@@ -5869,16 +5747,14 @@
       <c r="J108" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="K108" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K108" s="8"/>
       <c r="L108" s="6"/>
     </row>
     <row r="109" spans="1:12" ht="30">
-      <c r="A109" s="54"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="57"/>
-      <c r="D109" s="60"/>
+      <c r="A109" s="56"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="62"/>
       <c r="E109" s="31" t="s">
         <v>21</v>
       </c>
@@ -5897,16 +5773,14 @@
       <c r="J109" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="K109" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K109" s="8"/>
       <c r="L109" s="6"/>
     </row>
     <row r="110" spans="1:12" ht="45">
-      <c r="A110" s="54"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="60"/>
+      <c r="A110" s="56"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="62"/>
       <c r="E110" s="31" t="s">
         <v>22</v>
       </c>
@@ -5925,16 +5799,14 @@
       <c r="J110" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="K110" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K110" s="8"/>
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="1:12" ht="30">
-      <c r="A111" s="54"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="60"/>
+      <c r="A111" s="56"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="62"/>
       <c r="E111" s="31" t="s">
         <v>23</v>
       </c>
@@ -5951,16 +5823,14 @@
       <c r="J111" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="K111" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K111" s="8"/>
       <c r="L111" s="6"/>
     </row>
     <row r="112" spans="1:12" ht="30">
-      <c r="A112" s="54"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="60"/>
+      <c r="A112" s="56"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="62"/>
       <c r="E112" s="31" t="s">
         <v>24</v>
       </c>
@@ -5979,16 +5849,14 @@
       <c r="J112" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K112" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K112" s="8"/>
       <c r="L112" s="6"/>
     </row>
     <row r="113" spans="1:12" ht="38.25">
-      <c r="A113" s="55"/>
-      <c r="B113" s="58"/>
-      <c r="C113" s="58"/>
-      <c r="D113" s="61"/>
+      <c r="A113" s="57"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="63"/>
       <c r="E113" s="31" t="s">
         <v>25</v>
       </c>
@@ -6005,22 +5873,20 @@
       <c r="J113" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="K113" s="8" t="s">
-        <v>647</v>
-      </c>
+      <c r="K113" s="8"/>
       <c r="L113" s="6"/>
     </row>
     <row r="114" spans="1:12" ht="45">
-      <c r="A114" s="66" t="s">
+      <c r="A114" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="B114" s="47" t="s">
+      <c r="B114" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="C114" s="47" t="s">
+      <c r="C114" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="D114" s="50"/>
+      <c r="D114" s="52"/>
       <c r="E114" s="33" t="s">
         <v>12</v>
       </c>
@@ -6039,16 +5905,14 @@
       <c r="J114" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K114" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K114" s="15"/>
       <c r="L114" s="23"/>
     </row>
     <row r="115" spans="1:12" ht="30">
-      <c r="A115" s="67"/>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="51"/>
+      <c r="A115" s="69"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="53"/>
       <c r="E115" s="33" t="s">
         <v>13</v>
       </c>
@@ -6065,16 +5929,14 @@
       <c r="J115" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="K115" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K115" s="15"/>
       <c r="L115" s="23"/>
     </row>
     <row r="116" spans="1:12" ht="45">
-      <c r="A116" s="67"/>
-      <c r="B116" s="48"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="51"/>
+      <c r="A116" s="69"/>
+      <c r="B116" s="50"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="53"/>
       <c r="E116" s="33" t="s">
         <v>14</v>
       </c>
@@ -6093,16 +5955,14 @@
       <c r="J116" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="K116" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K116" s="15"/>
       <c r="L116" s="23"/>
     </row>
     <row r="117" spans="1:12" ht="45">
-      <c r="A117" s="67"/>
-      <c r="B117" s="48"/>
-      <c r="C117" s="48"/>
-      <c r="D117" s="51"/>
+      <c r="A117" s="69"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="53"/>
       <c r="E117" s="33" t="s">
         <v>15</v>
       </c>
@@ -6121,16 +5981,14 @@
       <c r="J117" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="K117" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K117" s="15"/>
       <c r="L117" s="23"/>
     </row>
     <row r="118" spans="1:12" ht="45">
-      <c r="A118" s="67"/>
-      <c r="B118" s="48"/>
-      <c r="C118" s="48"/>
-      <c r="D118" s="51"/>
+      <c r="A118" s="69"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="50"/>
+      <c r="D118" s="53"/>
       <c r="E118" s="33" t="s">
         <v>16</v>
       </c>
@@ -6149,16 +6007,14 @@
       <c r="J118" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="K118" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K118" s="15"/>
       <c r="L118" s="23"/>
     </row>
     <row r="119" spans="1:12" ht="30">
-      <c r="A119" s="67"/>
-      <c r="B119" s="48"/>
-      <c r="C119" s="48"/>
-      <c r="D119" s="51"/>
+      <c r="A119" s="69"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="53"/>
       <c r="E119" s="33" t="s">
         <v>17</v>
       </c>
@@ -6177,16 +6033,14 @@
       <c r="J119" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="K119" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K119" s="15"/>
       <c r="L119" s="23"/>
     </row>
     <row r="120" spans="1:12" ht="30">
-      <c r="A120" s="67"/>
-      <c r="B120" s="48"/>
-      <c r="C120" s="48"/>
-      <c r="D120" s="51"/>
+      <c r="A120" s="69"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="53"/>
       <c r="E120" s="33" t="s">
         <v>18</v>
       </c>
@@ -6205,16 +6059,14 @@
       <c r="J120" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="K120" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K120" s="15"/>
       <c r="L120" s="23"/>
     </row>
     <row r="121" spans="1:12" ht="30">
-      <c r="A121" s="67"/>
-      <c r="B121" s="48"/>
-      <c r="C121" s="48"/>
-      <c r="D121" s="51"/>
+      <c r="A121" s="69"/>
+      <c r="B121" s="50"/>
+      <c r="C121" s="50"/>
+      <c r="D121" s="53"/>
       <c r="E121" s="33" t="s">
         <v>19</v>
       </c>
@@ -6233,16 +6085,14 @@
       <c r="J121" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="K121" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K121" s="15"/>
       <c r="L121" s="23"/>
     </row>
     <row r="122" spans="1:12" ht="30">
-      <c r="A122" s="67"/>
-      <c r="B122" s="48"/>
-      <c r="C122" s="48"/>
-      <c r="D122" s="51"/>
+      <c r="A122" s="69"/>
+      <c r="B122" s="50"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="53"/>
       <c r="E122" s="33" t="s">
         <v>20</v>
       </c>
@@ -6261,16 +6111,14 @@
       <c r="J122" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="K122" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K122" s="15"/>
       <c r="L122" s="23"/>
     </row>
     <row r="123" spans="1:12" ht="30">
-      <c r="A123" s="67"/>
-      <c r="B123" s="48"/>
-      <c r="C123" s="48"/>
-      <c r="D123" s="51"/>
+      <c r="A123" s="69"/>
+      <c r="B123" s="50"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="53"/>
       <c r="E123" s="33" t="s">
         <v>21</v>
       </c>
@@ -6289,16 +6137,14 @@
       <c r="J123" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="K123" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K123" s="15"/>
       <c r="L123" s="23"/>
     </row>
     <row r="124" spans="1:12" ht="30">
-      <c r="A124" s="67"/>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
-      <c r="D124" s="51"/>
+      <c r="A124" s="69"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="53"/>
       <c r="E124" s="33" t="s">
         <v>22</v>
       </c>
@@ -6317,16 +6163,14 @@
       <c r="J124" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="K124" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K124" s="15"/>
       <c r="L124" s="23"/>
     </row>
     <row r="125" spans="1:12" ht="30">
-      <c r="A125" s="67"/>
-      <c r="B125" s="48"/>
-      <c r="C125" s="48"/>
-      <c r="D125" s="51"/>
+      <c r="A125" s="69"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="53"/>
       <c r="E125" s="33" t="s">
         <v>23</v>
       </c>
@@ -6345,16 +6189,14 @@
       <c r="J125" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="K125" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K125" s="15"/>
       <c r="L125" s="23"/>
     </row>
     <row r="126" spans="1:12" ht="30">
-      <c r="A126" s="67"/>
-      <c r="B126" s="48"/>
-      <c r="C126" s="48"/>
-      <c r="D126" s="51"/>
+      <c r="A126" s="69"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="53"/>
       <c r="E126" s="33" t="s">
         <v>24</v>
       </c>
@@ -6373,16 +6215,14 @@
       <c r="J126" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="K126" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K126" s="15"/>
       <c r="L126" s="23"/>
     </row>
     <row r="127" spans="1:12" ht="30">
-      <c r="A127" s="67"/>
-      <c r="B127" s="48"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="51"/>
+      <c r="A127" s="69"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="53"/>
       <c r="E127" s="33" t="s">
         <v>25</v>
       </c>
@@ -6401,16 +6241,14 @@
       <c r="J127" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="K127" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K127" s="15"/>
       <c r="L127" s="23"/>
     </row>
     <row r="128" spans="1:12" ht="30">
-      <c r="A128" s="67"/>
-      <c r="B128" s="48"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="51"/>
+      <c r="A128" s="69"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="53"/>
       <c r="E128" s="33" t="s">
         <v>55</v>
       </c>
@@ -6429,16 +6267,14 @@
       <c r="J128" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="K128" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K128" s="15"/>
       <c r="L128" s="23"/>
     </row>
     <row r="129" spans="1:12" ht="30">
-      <c r="A129" s="67"/>
-      <c r="B129" s="48"/>
-      <c r="C129" s="48"/>
-      <c r="D129" s="51"/>
+      <c r="A129" s="69"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="53"/>
       <c r="E129" s="33" t="s">
         <v>144</v>
       </c>
@@ -6457,16 +6293,14 @@
       <c r="J129" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="K129" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K129" s="15"/>
       <c r="L129" s="23"/>
     </row>
     <row r="130" spans="1:12" ht="30">
-      <c r="A130" s="67"/>
-      <c r="B130" s="48"/>
-      <c r="C130" s="48"/>
-      <c r="D130" s="51"/>
+      <c r="A130" s="69"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="53"/>
       <c r="E130" s="33" t="s">
         <v>166</v>
       </c>
@@ -6485,16 +6319,14 @@
       <c r="J130" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="K130" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K130" s="15"/>
       <c r="L130" s="23"/>
     </row>
     <row r="131" spans="1:12" ht="45">
-      <c r="A131" s="67"/>
-      <c r="B131" s="48"/>
-      <c r="C131" s="48"/>
-      <c r="D131" s="51"/>
+      <c r="A131" s="69"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="53"/>
       <c r="E131" s="33" t="s">
         <v>167</v>
       </c>
@@ -6513,16 +6345,14 @@
       <c r="J131" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="K131" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K131" s="15"/>
       <c r="L131" s="23"/>
     </row>
     <row r="132" spans="1:12" ht="45">
-      <c r="A132" s="67"/>
-      <c r="B132" s="48"/>
-      <c r="C132" s="48"/>
-      <c r="D132" s="51"/>
+      <c r="A132" s="69"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="53"/>
       <c r="E132" s="33" t="s">
         <v>168</v>
       </c>
@@ -6539,16 +6369,14 @@
       <c r="J132" s="23" t="s">
         <v>718</v>
       </c>
-      <c r="K132" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K132" s="15"/>
       <c r="L132" s="23"/>
     </row>
     <row r="133" spans="1:12" ht="30">
-      <c r="A133" s="67"/>
-      <c r="B133" s="48"/>
-      <c r="C133" s="48"/>
-      <c r="D133" s="51"/>
+      <c r="A133" s="69"/>
+      <c r="B133" s="50"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="53"/>
       <c r="E133" s="33" t="s">
         <v>169</v>
       </c>
@@ -6567,16 +6395,14 @@
       <c r="J133" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="K133" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K133" s="15"/>
       <c r="L133" s="23"/>
     </row>
     <row r="134" spans="1:12" ht="38.25">
-      <c r="A134" s="68"/>
-      <c r="B134" s="49"/>
-      <c r="C134" s="49"/>
-      <c r="D134" s="52"/>
+      <c r="A134" s="70"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="54"/>
       <c r="E134" s="33" t="s">
         <v>178</v>
       </c>
@@ -6593,22 +6419,20 @@
       <c r="J134" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="K134" s="15" t="s">
-        <v>647</v>
-      </c>
+      <c r="K134" s="15"/>
       <c r="L134" s="23"/>
     </row>
     <row r="135" spans="1:12" ht="45">
-      <c r="A135" s="53" t="s">
+      <c r="A135" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="B135" s="56" t="s">
+      <c r="B135" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="C135" s="56" t="s">
+      <c r="C135" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="D135" s="59"/>
+      <c r="D135" s="61"/>
       <c r="E135" s="31" t="s">
         <v>12</v>
       </c>
@@ -6631,10 +6455,10 @@
       <c r="L135" s="6"/>
     </row>
     <row r="136" spans="1:12" ht="30">
-      <c r="A136" s="54"/>
-      <c r="B136" s="57"/>
-      <c r="C136" s="57"/>
-      <c r="D136" s="60"/>
+      <c r="A136" s="56"/>
+      <c r="B136" s="59"/>
+      <c r="C136" s="59"/>
+      <c r="D136" s="62"/>
       <c r="E136" s="31" t="s">
         <v>13</v>
       </c>
@@ -6655,10 +6479,10 @@
       <c r="L136" s="6"/>
     </row>
     <row r="137" spans="1:12" ht="45">
-      <c r="A137" s="54"/>
-      <c r="B137" s="57"/>
-      <c r="C137" s="57"/>
-      <c r="D137" s="60"/>
+      <c r="A137" s="56"/>
+      <c r="B137" s="59"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="62"/>
       <c r="E137" s="31" t="s">
         <v>14</v>
       </c>
@@ -6679,10 +6503,10 @@
       <c r="L137" s="6"/>
     </row>
     <row r="138" spans="1:12" ht="45">
-      <c r="A138" s="54"/>
-      <c r="B138" s="57"/>
-      <c r="C138" s="57"/>
-      <c r="D138" s="60"/>
+      <c r="A138" s="56"/>
+      <c r="B138" s="59"/>
+      <c r="C138" s="59"/>
+      <c r="D138" s="62"/>
       <c r="E138" s="31" t="s">
         <v>15</v>
       </c>
@@ -6703,10 +6527,10 @@
       <c r="L138" s="6"/>
     </row>
     <row r="139" spans="1:12" ht="30">
-      <c r="A139" s="54"/>
-      <c r="B139" s="57"/>
-      <c r="C139" s="57"/>
-      <c r="D139" s="60"/>
+      <c r="A139" s="56"/>
+      <c r="B139" s="59"/>
+      <c r="C139" s="59"/>
+      <c r="D139" s="62"/>
       <c r="E139" s="31" t="s">
         <v>16</v>
       </c>
@@ -6727,10 +6551,10 @@
       <c r="L139" s="6"/>
     </row>
     <row r="140" spans="1:12" ht="30">
-      <c r="A140" s="54"/>
-      <c r="B140" s="57"/>
-      <c r="C140" s="57"/>
-      <c r="D140" s="60"/>
+      <c r="A140" s="56"/>
+      <c r="B140" s="59"/>
+      <c r="C140" s="59"/>
+      <c r="D140" s="62"/>
       <c r="E140" s="31" t="s">
         <v>17</v>
       </c>
@@ -6751,10 +6575,10 @@
       <c r="L140" s="6"/>
     </row>
     <row r="141" spans="1:12" ht="30">
-      <c r="A141" s="54"/>
-      <c r="B141" s="57"/>
-      <c r="C141" s="57"/>
-      <c r="D141" s="60"/>
+      <c r="A141" s="56"/>
+      <c r="B141" s="59"/>
+      <c r="C141" s="59"/>
+      <c r="D141" s="62"/>
       <c r="E141" s="31" t="s">
         <v>18</v>
       </c>
@@ -6775,10 +6599,10 @@
       <c r="L141" s="6"/>
     </row>
     <row r="142" spans="1:12" ht="30">
-      <c r="A142" s="54"/>
-      <c r="B142" s="57"/>
-      <c r="C142" s="57"/>
-      <c r="D142" s="60"/>
+      <c r="A142" s="56"/>
+      <c r="B142" s="59"/>
+      <c r="C142" s="59"/>
+      <c r="D142" s="62"/>
       <c r="E142" s="31" t="s">
         <v>19</v>
       </c>
@@ -6799,10 +6623,10 @@
       <c r="L142" s="6"/>
     </row>
     <row r="143" spans="1:12" ht="30">
-      <c r="A143" s="54"/>
-      <c r="B143" s="57"/>
-      <c r="C143" s="57"/>
-      <c r="D143" s="60"/>
+      <c r="A143" s="56"/>
+      <c r="B143" s="59"/>
+      <c r="C143" s="59"/>
+      <c r="D143" s="62"/>
       <c r="E143" s="31" t="s">
         <v>20</v>
       </c>
@@ -6823,10 +6647,10 @@
       <c r="L143" s="6"/>
     </row>
     <row r="144" spans="1:12" ht="30">
-      <c r="A144" s="54"/>
-      <c r="B144" s="57"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="60"/>
+      <c r="A144" s="56"/>
+      <c r="B144" s="59"/>
+      <c r="C144" s="59"/>
+      <c r="D144" s="62"/>
       <c r="E144" s="31" t="s">
         <v>21</v>
       </c>
@@ -6847,10 +6671,10 @@
       <c r="L144" s="6"/>
     </row>
     <row r="145" spans="1:12" ht="30">
-      <c r="A145" s="54"/>
-      <c r="B145" s="57"/>
-      <c r="C145" s="57"/>
-      <c r="D145" s="60"/>
+      <c r="A145" s="56"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="59"/>
+      <c r="D145" s="62"/>
       <c r="E145" s="31" t="s">
         <v>22</v>
       </c>
@@ -6871,10 +6695,10 @@
       <c r="L145" s="6"/>
     </row>
     <row r="146" spans="1:12" ht="30">
-      <c r="A146" s="54"/>
-      <c r="B146" s="57"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="60"/>
+      <c r="A146" s="56"/>
+      <c r="B146" s="59"/>
+      <c r="C146" s="59"/>
+      <c r="D146" s="62"/>
       <c r="E146" s="31" t="s">
         <v>23</v>
       </c>
@@ -6895,10 +6719,10 @@
       <c r="L146" s="6"/>
     </row>
     <row r="147" spans="1:12" ht="30">
-      <c r="A147" s="54"/>
-      <c r="B147" s="57"/>
-      <c r="C147" s="57"/>
-      <c r="D147" s="60"/>
+      <c r="A147" s="56"/>
+      <c r="B147" s="59"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="62"/>
       <c r="E147" s="31" t="s">
         <v>24</v>
       </c>
@@ -6919,10 +6743,10 @@
       <c r="L147" s="6"/>
     </row>
     <row r="148" spans="1:12" ht="45">
-      <c r="A148" s="54"/>
-      <c r="B148" s="57"/>
-      <c r="C148" s="57"/>
-      <c r="D148" s="60"/>
+      <c r="A148" s="56"/>
+      <c r="B148" s="59"/>
+      <c r="C148" s="59"/>
+      <c r="D148" s="62"/>
       <c r="E148" s="31" t="s">
         <v>25</v>
       </c>
@@ -6943,10 +6767,10 @@
       <c r="L148" s="6"/>
     </row>
     <row r="149" spans="1:12" ht="30">
-      <c r="A149" s="54"/>
-      <c r="B149" s="57"/>
-      <c r="C149" s="57"/>
-      <c r="D149" s="60"/>
+      <c r="A149" s="56"/>
+      <c r="B149" s="59"/>
+      <c r="C149" s="59"/>
+      <c r="D149" s="62"/>
       <c r="E149" s="31" t="s">
         <v>55</v>
       </c>
@@ -6967,10 +6791,10 @@
       <c r="L149" s="6"/>
     </row>
     <row r="150" spans="1:12" ht="30">
-      <c r="A150" s="54"/>
-      <c r="B150" s="57"/>
-      <c r="C150" s="57"/>
-      <c r="D150" s="60"/>
+      <c r="A150" s="56"/>
+      <c r="B150" s="59"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="62"/>
       <c r="E150" s="31" t="s">
         <v>144</v>
       </c>
@@ -6991,10 +6815,10 @@
       <c r="L150" s="6"/>
     </row>
     <row r="151" spans="1:12" ht="45">
-      <c r="A151" s="54"/>
-      <c r="B151" s="57"/>
-      <c r="C151" s="57"/>
-      <c r="D151" s="60"/>
+      <c r="A151" s="56"/>
+      <c r="B151" s="59"/>
+      <c r="C151" s="59"/>
+      <c r="D151" s="62"/>
       <c r="E151" s="31" t="s">
         <v>166</v>
       </c>
@@ -7015,10 +6839,10 @@
       <c r="L151" s="6"/>
     </row>
     <row r="152" spans="1:12" ht="45">
-      <c r="A152" s="54"/>
-      <c r="B152" s="57"/>
-      <c r="C152" s="57"/>
-      <c r="D152" s="60"/>
+      <c r="A152" s="56"/>
+      <c r="B152" s="59"/>
+      <c r="C152" s="59"/>
+      <c r="D152" s="62"/>
       <c r="E152" s="31" t="s">
         <v>167</v>
       </c>
@@ -7039,10 +6863,10 @@
       <c r="L152" s="6"/>
     </row>
     <row r="153" spans="1:12" ht="30">
-      <c r="A153" s="54"/>
-      <c r="B153" s="57"/>
-      <c r="C153" s="57"/>
-      <c r="D153" s="60"/>
+      <c r="A153" s="56"/>
+      <c r="B153" s="59"/>
+      <c r="C153" s="59"/>
+      <c r="D153" s="62"/>
       <c r="E153" s="31" t="s">
         <v>168</v>
       </c>
@@ -7063,10 +6887,10 @@
       <c r="L153" s="6"/>
     </row>
     <row r="154" spans="1:12" ht="45">
-      <c r="A154" s="54"/>
-      <c r="B154" s="57"/>
-      <c r="C154" s="57"/>
-      <c r="D154" s="60"/>
+      <c r="A154" s="56"/>
+      <c r="B154" s="59"/>
+      <c r="C154" s="59"/>
+      <c r="D154" s="62"/>
       <c r="E154" s="31" t="s">
         <v>169</v>
       </c>
@@ -7087,10 +6911,10 @@
       <c r="L154" s="6"/>
     </row>
     <row r="155" spans="1:12" ht="30">
-      <c r="A155" s="54"/>
-      <c r="B155" s="57"/>
-      <c r="C155" s="57"/>
-      <c r="D155" s="60"/>
+      <c r="A155" s="56"/>
+      <c r="B155" s="59"/>
+      <c r="C155" s="59"/>
+      <c r="D155" s="62"/>
       <c r="E155" s="31" t="s">
         <v>178</v>
       </c>
@@ -7111,10 +6935,10 @@
       <c r="L155" s="6"/>
     </row>
     <row r="156" spans="1:12" ht="30">
-      <c r="A156" s="54"/>
-      <c r="B156" s="57"/>
-      <c r="C156" s="57"/>
-      <c r="D156" s="60"/>
+      <c r="A156" s="56"/>
+      <c r="B156" s="59"/>
+      <c r="C156" s="59"/>
+      <c r="D156" s="62"/>
       <c r="E156" s="31" t="s">
         <v>179</v>
       </c>
@@ -7135,10 +6959,10 @@
       <c r="L156" s="6"/>
     </row>
     <row r="157" spans="1:12" ht="30">
-      <c r="A157" s="54"/>
-      <c r="B157" s="57"/>
-      <c r="C157" s="57"/>
-      <c r="D157" s="60"/>
+      <c r="A157" s="56"/>
+      <c r="B157" s="59"/>
+      <c r="C157" s="59"/>
+      <c r="D157" s="62"/>
       <c r="E157" s="31" t="s">
         <v>180</v>
       </c>
@@ -7159,10 +6983,10 @@
       <c r="L157" s="6"/>
     </row>
     <row r="158" spans="1:12" ht="30">
-      <c r="A158" s="54"/>
-      <c r="B158" s="57"/>
-      <c r="C158" s="57"/>
-      <c r="D158" s="60"/>
+      <c r="A158" s="56"/>
+      <c r="B158" s="59"/>
+      <c r="C158" s="59"/>
+      <c r="D158" s="62"/>
       <c r="E158" s="31" t="s">
         <v>184</v>
       </c>
@@ -7183,10 +7007,10 @@
       <c r="L158" s="6"/>
     </row>
     <row r="159" spans="1:12" ht="30">
-      <c r="A159" s="54"/>
-      <c r="B159" s="57"/>
-      <c r="C159" s="57"/>
-      <c r="D159" s="60"/>
+      <c r="A159" s="56"/>
+      <c r="B159" s="59"/>
+      <c r="C159" s="59"/>
+      <c r="D159" s="62"/>
       <c r="E159" s="31" t="s">
         <v>185</v>
       </c>
@@ -7207,10 +7031,10 @@
       <c r="L159" s="6"/>
     </row>
     <row r="160" spans="1:12" ht="30">
-      <c r="A160" s="54"/>
-      <c r="B160" s="57"/>
-      <c r="C160" s="57"/>
-      <c r="D160" s="60"/>
+      <c r="A160" s="56"/>
+      <c r="B160" s="59"/>
+      <c r="C160" s="59"/>
+      <c r="D160" s="62"/>
       <c r="E160" s="31" t="s">
         <v>186</v>
       </c>
@@ -7231,10 +7055,10 @@
       <c r="L160" s="6"/>
     </row>
     <row r="161" spans="1:12" ht="30">
-      <c r="A161" s="54"/>
-      <c r="B161" s="57"/>
-      <c r="C161" s="57"/>
-      <c r="D161" s="60"/>
+      <c r="A161" s="56"/>
+      <c r="B161" s="59"/>
+      <c r="C161" s="59"/>
+      <c r="D161" s="62"/>
       <c r="E161" s="31" t="s">
         <v>424</v>
       </c>
@@ -7255,10 +7079,10 @@
       <c r="L161" s="6"/>
     </row>
     <row r="162" spans="1:12" ht="30">
-      <c r="A162" s="54"/>
-      <c r="B162" s="57"/>
-      <c r="C162" s="57"/>
-      <c r="D162" s="60"/>
+      <c r="A162" s="56"/>
+      <c r="B162" s="59"/>
+      <c r="C162" s="59"/>
+      <c r="D162" s="62"/>
       <c r="E162" s="31" t="s">
         <v>425</v>
       </c>
@@ -7279,10 +7103,10 @@
       <c r="L162" s="6"/>
     </row>
     <row r="163" spans="1:12" ht="45">
-      <c r="A163" s="54"/>
-      <c r="B163" s="57"/>
-      <c r="C163" s="57"/>
-      <c r="D163" s="60"/>
+      <c r="A163" s="56"/>
+      <c r="B163" s="59"/>
+      <c r="C163" s="59"/>
+      <c r="D163" s="62"/>
       <c r="E163" s="31" t="s">
         <v>426</v>
       </c>
@@ -7303,10 +7127,10 @@
       <c r="L163" s="6"/>
     </row>
     <row r="164" spans="1:12" ht="45">
-      <c r="A164" s="54"/>
-      <c r="B164" s="57"/>
-      <c r="C164" s="57"/>
-      <c r="D164" s="60"/>
+      <c r="A164" s="56"/>
+      <c r="B164" s="59"/>
+      <c r="C164" s="59"/>
+      <c r="D164" s="62"/>
       <c r="E164" s="31" t="s">
         <v>427</v>
       </c>
@@ -7327,10 +7151,10 @@
       <c r="L164" s="6"/>
     </row>
     <row r="165" spans="1:12" ht="45">
-      <c r="A165" s="54"/>
-      <c r="B165" s="57"/>
-      <c r="C165" s="57"/>
-      <c r="D165" s="60"/>
+      <c r="A165" s="56"/>
+      <c r="B165" s="59"/>
+      <c r="C165" s="59"/>
+      <c r="D165" s="62"/>
       <c r="E165" s="31" t="s">
         <v>428</v>
       </c>
@@ -7351,10 +7175,10 @@
       <c r="L165" s="6"/>
     </row>
     <row r="166" spans="1:12" ht="45">
-      <c r="A166" s="54"/>
-      <c r="B166" s="57"/>
-      <c r="C166" s="57"/>
-      <c r="D166" s="60"/>
+      <c r="A166" s="56"/>
+      <c r="B166" s="59"/>
+      <c r="C166" s="59"/>
+      <c r="D166" s="62"/>
       <c r="E166" s="31" t="s">
         <v>429</v>
       </c>
@@ -7375,10 +7199,10 @@
       <c r="L166" s="6"/>
     </row>
     <row r="167" spans="1:12" ht="30">
-      <c r="A167" s="54"/>
-      <c r="B167" s="57"/>
-      <c r="C167" s="57"/>
-      <c r="D167" s="60"/>
+      <c r="A167" s="56"/>
+      <c r="B167" s="59"/>
+      <c r="C167" s="59"/>
+      <c r="D167" s="62"/>
       <c r="E167" s="31" t="s">
         <v>430</v>
       </c>
@@ -7399,10 +7223,10 @@
       <c r="L167" s="6"/>
     </row>
     <row r="168" spans="1:12" ht="30">
-      <c r="A168" s="54"/>
-      <c r="B168" s="57"/>
-      <c r="C168" s="57"/>
-      <c r="D168" s="60"/>
+      <c r="A168" s="56"/>
+      <c r="B168" s="59"/>
+      <c r="C168" s="59"/>
+      <c r="D168" s="62"/>
       <c r="E168" s="31" t="s">
         <v>431</v>
       </c>
@@ -7423,10 +7247,10 @@
       <c r="L168" s="6"/>
     </row>
     <row r="169" spans="1:12" ht="30">
-      <c r="A169" s="54"/>
-      <c r="B169" s="57"/>
-      <c r="C169" s="57"/>
-      <c r="D169" s="60"/>
+      <c r="A169" s="56"/>
+      <c r="B169" s="59"/>
+      <c r="C169" s="59"/>
+      <c r="D169" s="62"/>
       <c r="E169" s="31" t="s">
         <v>432</v>
       </c>
@@ -7447,10 +7271,10 @@
       <c r="L169" s="6"/>
     </row>
     <row r="170" spans="1:12" ht="45">
-      <c r="A170" s="54"/>
-      <c r="B170" s="57"/>
-      <c r="C170" s="57"/>
-      <c r="D170" s="60"/>
+      <c r="A170" s="56"/>
+      <c r="B170" s="59"/>
+      <c r="C170" s="59"/>
+      <c r="D170" s="62"/>
       <c r="E170" s="31" t="s">
         <v>433</v>
       </c>
@@ -7471,10 +7295,10 @@
       <c r="L170" s="6"/>
     </row>
     <row r="171" spans="1:12" ht="60">
-      <c r="A171" s="54"/>
-      <c r="B171" s="57"/>
-      <c r="C171" s="57"/>
-      <c r="D171" s="60"/>
+      <c r="A171" s="56"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="62"/>
       <c r="E171" s="31" t="s">
         <v>434</v>
       </c>
@@ -7495,10 +7319,10 @@
       <c r="L171" s="6"/>
     </row>
     <row r="172" spans="1:12" ht="30">
-      <c r="A172" s="54"/>
-      <c r="B172" s="57"/>
-      <c r="C172" s="57"/>
-      <c r="D172" s="60"/>
+      <c r="A172" s="56"/>
+      <c r="B172" s="59"/>
+      <c r="C172" s="59"/>
+      <c r="D172" s="62"/>
       <c r="E172" s="31" t="s">
         <v>435</v>
       </c>
@@ -7519,10 +7343,10 @@
       <c r="L172" s="6"/>
     </row>
     <row r="173" spans="1:12" ht="30">
-      <c r="A173" s="54"/>
-      <c r="B173" s="57"/>
-      <c r="C173" s="57"/>
-      <c r="D173" s="60"/>
+      <c r="A173" s="56"/>
+      <c r="B173" s="59"/>
+      <c r="C173" s="59"/>
+      <c r="D173" s="62"/>
       <c r="E173" s="31" t="s">
         <v>436</v>
       </c>
@@ -7543,10 +7367,10 @@
       <c r="L173" s="6"/>
     </row>
     <row r="174" spans="1:12" ht="30">
-      <c r="A174" s="54"/>
-      <c r="B174" s="57"/>
-      <c r="C174" s="57"/>
-      <c r="D174" s="60"/>
+      <c r="A174" s="56"/>
+      <c r="B174" s="59"/>
+      <c r="C174" s="59"/>
+      <c r="D174" s="62"/>
       <c r="E174" s="31" t="s">
         <v>437</v>
       </c>
@@ -7567,10 +7391,10 @@
       <c r="L174" s="6"/>
     </row>
     <row r="175" spans="1:12" ht="30">
-      <c r="A175" s="54"/>
-      <c r="B175" s="57"/>
-      <c r="C175" s="57"/>
-      <c r="D175" s="60"/>
+      <c r="A175" s="56"/>
+      <c r="B175" s="59"/>
+      <c r="C175" s="59"/>
+      <c r="D175" s="62"/>
       <c r="E175" s="31" t="s">
         <v>438</v>
       </c>
@@ -7591,10 +7415,10 @@
       <c r="L175" s="6"/>
     </row>
     <row r="176" spans="1:12" ht="30">
-      <c r="A176" s="54"/>
-      <c r="B176" s="57"/>
-      <c r="C176" s="57"/>
-      <c r="D176" s="60"/>
+      <c r="A176" s="56"/>
+      <c r="B176" s="59"/>
+      <c r="C176" s="59"/>
+      <c r="D176" s="62"/>
       <c r="E176" s="31" t="s">
         <v>439</v>
       </c>
@@ -7615,10 +7439,10 @@
       <c r="L176" s="6"/>
     </row>
     <row r="177" spans="1:12" ht="45">
-      <c r="A177" s="54"/>
-      <c r="B177" s="57"/>
-      <c r="C177" s="57"/>
-      <c r="D177" s="60"/>
+      <c r="A177" s="56"/>
+      <c r="B177" s="59"/>
+      <c r="C177" s="59"/>
+      <c r="D177" s="62"/>
       <c r="E177" s="31" t="s">
         <v>440</v>
       </c>
@@ -7639,10 +7463,10 @@
       <c r="L177" s="6"/>
     </row>
     <row r="178" spans="1:12" ht="45">
-      <c r="A178" s="54"/>
-      <c r="B178" s="57"/>
-      <c r="C178" s="57"/>
-      <c r="D178" s="60"/>
+      <c r="A178" s="56"/>
+      <c r="B178" s="59"/>
+      <c r="C178" s="59"/>
+      <c r="D178" s="62"/>
       <c r="E178" s="31" t="s">
         <v>506</v>
       </c>
@@ -7663,10 +7487,10 @@
       <c r="L178" s="6"/>
     </row>
     <row r="179" spans="1:12" ht="30">
-      <c r="A179" s="54"/>
-      <c r="B179" s="57"/>
-      <c r="C179" s="57"/>
-      <c r="D179" s="60"/>
+      <c r="A179" s="56"/>
+      <c r="B179" s="59"/>
+      <c r="C179" s="59"/>
+      <c r="D179" s="62"/>
       <c r="E179" s="31" t="s">
         <v>507</v>
       </c>
@@ -7687,10 +7511,10 @@
       <c r="L179" s="6"/>
     </row>
     <row r="180" spans="1:12" ht="38.25">
-      <c r="A180" s="55"/>
-      <c r="B180" s="58"/>
-      <c r="C180" s="58"/>
-      <c r="D180" s="61"/>
+      <c r="A180" s="57"/>
+      <c r="B180" s="60"/>
+      <c r="C180" s="60"/>
+      <c r="D180" s="63"/>
       <c r="E180" s="31" t="s">
         <v>508</v>
       </c>
@@ -7763,7 +7587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data/Input/TestCases.xlsx
+++ b/Data/Input/TestCases.xlsx
@@ -2853,13 +2853,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2880,26 +2889,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3130,10 +3130,10 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" ht="45">
       <c r="A2" s="41" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>298</v>
@@ -4163,16 +4163,16 @@
       <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" s="18" customFormat="1" ht="45">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="53" t="s">
         <v>640</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -4199,10 +4199,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" s="10" customFormat="1" ht="45">
-      <c r="A19" s="63"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="60"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
@@ -4225,10 +4225,10 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" s="10" customFormat="1" ht="45">
-      <c r="A20" s="63"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="60"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="3" t="s">
         <v>14</v>
       </c>
@@ -4251,10 +4251,10 @@
       <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" ht="60">
-      <c r="A21" s="63"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="60"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
@@ -4279,10 +4279,10 @@
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" s="10" customFormat="1" ht="38.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="60"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
@@ -4305,10 +4305,10 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" s="10" customFormat="1" ht="25.5">
-      <c r="A23" s="63"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="60"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="3" t="s">
         <v>17</v>
       </c>
@@ -4333,10 +4333,10 @@
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" s="10" customFormat="1" ht="25.5">
-      <c r="A24" s="63"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="60"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="3" t="s">
         <v>18</v>
       </c>
@@ -4361,10 +4361,10 @@
       <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" ht="38.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="60"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="3" t="s">
         <v>19</v>
       </c>
@@ -4389,10 +4389,10 @@
       <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" s="10" customFormat="1" ht="38.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="60"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
@@ -4417,10 +4417,10 @@
       <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" s="10" customFormat="1" ht="38.25">
-      <c r="A27" s="63"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="60"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="3" t="s">
         <v>21</v>
       </c>
@@ -4443,10 +4443,10 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" s="10" customFormat="1" ht="38.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="60"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="3" t="s">
         <v>22</v>
       </c>
@@ -4471,10 +4471,10 @@
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12" s="10" customFormat="1" ht="38.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="60"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="3" t="s">
         <v>23</v>
       </c>
@@ -4497,10 +4497,10 @@
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" s="10" customFormat="1" ht="38.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="61"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="3" t="s">
         <v>24</v>
       </c>
@@ -4973,16 +4973,16 @@
       <c r="L46" s="19"/>
     </row>
     <row r="47" spans="1:12" s="10" customFormat="1" ht="45">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="53" t="s">
         <v>640</v>
       </c>
       <c r="E47" s="37" t="s">
@@ -5009,10 +5009,10 @@
       <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12" s="10" customFormat="1" ht="30">
-      <c r="A48" s="54"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="60"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="54"/>
       <c r="E48" s="37" t="s">
         <v>13</v>
       </c>
@@ -5035,10 +5035,10 @@
       <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" s="10" customFormat="1" ht="30">
-      <c r="A49" s="54"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="60"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="37" t="s">
         <v>14</v>
       </c>
@@ -5063,10 +5063,10 @@
       <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12" s="10" customFormat="1" ht="60">
-      <c r="A50" s="54"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="60"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="54"/>
       <c r="E50" s="37" t="s">
         <v>15</v>
       </c>
@@ -5091,10 +5091,10 @@
       <c r="L50" s="6"/>
     </row>
     <row r="51" spans="1:12" s="10" customFormat="1" ht="60">
-      <c r="A51" s="54"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="60"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="37" t="s">
         <v>16</v>
       </c>
@@ -5119,10 +5119,10 @@
       <c r="L51" s="6"/>
     </row>
     <row r="52" spans="1:12" s="10" customFormat="1" ht="75">
-      <c r="A52" s="54"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="60"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="37" t="s">
         <v>17</v>
       </c>
@@ -5147,10 +5147,10 @@
       <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12" s="10" customFormat="1" ht="75">
-      <c r="A53" s="54"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="60"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="54"/>
       <c r="E53" s="37" t="s">
         <v>18</v>
       </c>
@@ -5175,10 +5175,10 @@
       <c r="L53" s="6"/>
     </row>
     <row r="54" spans="1:12" s="10" customFormat="1" ht="60">
-      <c r="A54" s="54"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="60"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="54"/>
       <c r="E54" s="37" t="s">
         <v>19</v>
       </c>
@@ -5203,10 +5203,10 @@
       <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12" s="10" customFormat="1" ht="75">
-      <c r="A55" s="54"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="60"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="54"/>
       <c r="E55" s="37" t="s">
         <v>20</v>
       </c>
@@ -5231,10 +5231,10 @@
       <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12" s="10" customFormat="1" ht="75">
-      <c r="A56" s="54"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="60"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="54"/>
       <c r="E56" s="37" t="s">
         <v>21</v>
       </c>
@@ -5259,10 +5259,10 @@
       <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12" s="10" customFormat="1" ht="30">
-      <c r="A57" s="54"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="60"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="37" t="s">
         <v>22</v>
       </c>
@@ -5287,10 +5287,10 @@
       <c r="L57" s="6"/>
     </row>
     <row r="58" spans="1:12" s="10" customFormat="1" ht="38.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="61"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="55"/>
       <c r="E58" s="37" t="s">
         <v>23</v>
       </c>
@@ -5313,7 +5313,7 @@
       <c r="L58" s="6"/>
     </row>
     <row r="59" spans="1:12" s="10" customFormat="1" ht="45">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="62" t="s">
         <v>78</v>
       </c>
       <c r="B59" s="44" t="s">
@@ -5349,7 +5349,7 @@
       <c r="L59" s="19"/>
     </row>
     <row r="60" spans="1:12" s="10" customFormat="1" ht="45">
-      <c r="A60" s="51"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="45"/>
       <c r="C60" s="45"/>
       <c r="D60" s="48"/>
@@ -5375,7 +5375,7 @@
       <c r="L60" s="19"/>
     </row>
     <row r="61" spans="1:12" s="10" customFormat="1" ht="45">
-      <c r="A61" s="51"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="45"/>
       <c r="C61" s="45"/>
       <c r="D61" s="48"/>
@@ -5401,7 +5401,7 @@
       <c r="L61" s="19"/>
     </row>
     <row r="62" spans="1:12" s="10" customFormat="1" ht="45">
-      <c r="A62" s="51"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="45"/>
       <c r="C62" s="45"/>
       <c r="D62" s="48"/>
@@ -5427,7 +5427,7 @@
       <c r="L62" s="19"/>
     </row>
     <row r="63" spans="1:12" s="10" customFormat="1" ht="60">
-      <c r="A63" s="51"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="45"/>
       <c r="C63" s="45"/>
       <c r="D63" s="48"/>
@@ -5453,7 +5453,7 @@
       <c r="L63" s="19"/>
     </row>
     <row r="64" spans="1:12" s="10" customFormat="1" ht="60">
-      <c r="A64" s="51"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
       <c r="D64" s="48"/>
@@ -5479,7 +5479,7 @@
       <c r="L64" s="19"/>
     </row>
     <row r="65" spans="1:12" s="10" customFormat="1" ht="38.25">
-      <c r="A65" s="52"/>
+      <c r="A65" s="64"/>
       <c r="B65" s="46"/>
       <c r="C65" s="46"/>
       <c r="D65" s="49"/>
@@ -5505,16 +5505,16 @@
       <c r="L65" s="19"/>
     </row>
     <row r="66" spans="1:12" ht="45">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="53" t="s">
         <v>640</v>
       </c>
       <c r="E66" s="26" t="s">
@@ -5541,10 +5541,10 @@
       <c r="L66" s="6"/>
     </row>
     <row r="67" spans="1:12" ht="30">
-      <c r="A67" s="54"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
       <c r="E67" s="26" t="s">
         <v>13</v>
       </c>
@@ -5567,10 +5567,10 @@
       <c r="L67" s="6"/>
     </row>
     <row r="68" spans="1:12" ht="45">
-      <c r="A68" s="54"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
       <c r="E68" s="26" t="s">
         <v>14</v>
       </c>
@@ -5595,10 +5595,10 @@
       <c r="L68" s="6"/>
     </row>
     <row r="69" spans="1:12" ht="45">
-      <c r="A69" s="54"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
       <c r="E69" s="26" t="s">
         <v>15</v>
       </c>
@@ -5623,10 +5623,10 @@
       <c r="L69" s="6"/>
     </row>
     <row r="70" spans="1:12" ht="60">
-      <c r="A70" s="54"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
       <c r="E70" s="26" t="s">
         <v>16</v>
       </c>
@@ -5651,10 +5651,10 @@
       <c r="L70" s="6"/>
     </row>
     <row r="71" spans="1:12" ht="45">
-      <c r="A71" s="54"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
       <c r="E71" s="26" t="s">
         <v>17</v>
       </c>
@@ -5679,10 +5679,10 @@
       <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:12" ht="45">
-      <c r="A72" s="54"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
       <c r="E72" s="26" t="s">
         <v>18</v>
       </c>
@@ -5707,10 +5707,10 @@
       <c r="L72" s="6"/>
     </row>
     <row r="73" spans="1:12" ht="30">
-      <c r="A73" s="54"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
       <c r="E73" s="26" t="s">
         <v>19</v>
       </c>
@@ -5735,10 +5735,10 @@
       <c r="L73" s="24"/>
     </row>
     <row r="74" spans="1:12" ht="30">
-      <c r="A74" s="54"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
       <c r="E74" s="26" t="s">
         <v>20</v>
       </c>
@@ -5763,10 +5763,10 @@
       <c r="L74" s="24"/>
     </row>
     <row r="75" spans="1:12" ht="45">
-      <c r="A75" s="54"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
       <c r="E75" s="26" t="s">
         <v>21</v>
       </c>
@@ -5789,10 +5789,10 @@
       <c r="L75" s="24"/>
     </row>
     <row r="76" spans="1:12" ht="38.25">
-      <c r="A76" s="55"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
       <c r="E76" s="26" t="s">
         <v>22</v>
       </c>
@@ -5815,7 +5815,7 @@
       <c r="L76" s="24"/>
     </row>
     <row r="77" spans="1:12" ht="45">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="62" t="s">
         <v>148</v>
       </c>
       <c r="B77" s="44" t="s">
@@ -5851,7 +5851,7 @@
       <c r="L77" s="19"/>
     </row>
     <row r="78" spans="1:12" ht="30">
-      <c r="A78" s="51"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="45"/>
       <c r="C78" s="45"/>
       <c r="D78" s="48"/>
@@ -5877,7 +5877,7 @@
       <c r="L78" s="19"/>
     </row>
     <row r="79" spans="1:12" ht="30">
-      <c r="A79" s="51"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="45"/>
       <c r="C79" s="45"/>
       <c r="D79" s="48"/>
@@ -5905,7 +5905,7 @@
       <c r="L79" s="19"/>
     </row>
     <row r="80" spans="1:12" ht="30">
-      <c r="A80" s="51"/>
+      <c r="A80" s="63"/>
       <c r="B80" s="45"/>
       <c r="C80" s="45"/>
       <c r="D80" s="48"/>
@@ -5933,7 +5933,7 @@
       <c r="L80" s="19"/>
     </row>
     <row r="81" spans="1:12" ht="30">
-      <c r="A81" s="51"/>
+      <c r="A81" s="63"/>
       <c r="B81" s="45"/>
       <c r="C81" s="45"/>
       <c r="D81" s="48"/>
@@ -5961,7 +5961,7 @@
       <c r="L81" s="19"/>
     </row>
     <row r="82" spans="1:12" ht="30">
-      <c r="A82" s="51"/>
+      <c r="A82" s="63"/>
       <c r="B82" s="45"/>
       <c r="C82" s="45"/>
       <c r="D82" s="48"/>
@@ -5989,7 +5989,7 @@
       <c r="L82" s="19"/>
     </row>
     <row r="83" spans="1:12" ht="45">
-      <c r="A83" s="51"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="45"/>
       <c r="C83" s="45"/>
       <c r="D83" s="48"/>
@@ -6017,7 +6017,7 @@
       <c r="L83" s="19"/>
     </row>
     <row r="84" spans="1:12" ht="30">
-      <c r="A84" s="51"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="45"/>
       <c r="C84" s="45"/>
       <c r="D84" s="48"/>
@@ -6045,7 +6045,7 @@
       <c r="L84" s="19"/>
     </row>
     <row r="85" spans="1:12" ht="30">
-      <c r="A85" s="51"/>
+      <c r="A85" s="63"/>
       <c r="B85" s="45"/>
       <c r="C85" s="45"/>
       <c r="D85" s="48"/>
@@ -6073,7 +6073,7 @@
       <c r="L85" s="19"/>
     </row>
     <row r="86" spans="1:12" ht="45">
-      <c r="A86" s="51"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="45"/>
       <c r="C86" s="45"/>
       <c r="D86" s="48"/>
@@ -6101,7 +6101,7 @@
       <c r="L86" s="19"/>
     </row>
     <row r="87" spans="1:12" ht="45">
-      <c r="A87" s="51"/>
+      <c r="A87" s="63"/>
       <c r="B87" s="45"/>
       <c r="C87" s="45"/>
       <c r="D87" s="48"/>
@@ -6129,7 +6129,7 @@
       <c r="L87" s="19"/>
     </row>
     <row r="88" spans="1:12" ht="45">
-      <c r="A88" s="51"/>
+      <c r="A88" s="63"/>
       <c r="B88" s="45"/>
       <c r="C88" s="45"/>
       <c r="D88" s="48"/>
@@ -6157,7 +6157,7 @@
       <c r="L88" s="19"/>
     </row>
     <row r="89" spans="1:12" ht="45">
-      <c r="A89" s="51"/>
+      <c r="A89" s="63"/>
       <c r="B89" s="45"/>
       <c r="C89" s="45"/>
       <c r="D89" s="48"/>
@@ -6185,7 +6185,7 @@
       <c r="L89" s="19"/>
     </row>
     <row r="90" spans="1:12" ht="45">
-      <c r="A90" s="51"/>
+      <c r="A90" s="63"/>
       <c r="B90" s="45"/>
       <c r="C90" s="45"/>
       <c r="D90" s="48"/>
@@ -6213,7 +6213,7 @@
       <c r="L90" s="19"/>
     </row>
     <row r="91" spans="1:12" ht="45">
-      <c r="A91" s="51"/>
+      <c r="A91" s="63"/>
       <c r="B91" s="45"/>
       <c r="C91" s="45"/>
       <c r="D91" s="48"/>
@@ -6241,7 +6241,7 @@
       <c r="L91" s="19"/>
     </row>
     <row r="92" spans="1:12" ht="45">
-      <c r="A92" s="51"/>
+      <c r="A92" s="63"/>
       <c r="B92" s="45"/>
       <c r="C92" s="45"/>
       <c r="D92" s="48"/>
@@ -6269,7 +6269,7 @@
       <c r="L92" s="19"/>
     </row>
     <row r="93" spans="1:12" ht="45">
-      <c r="A93" s="51"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="45"/>
       <c r="C93" s="45"/>
       <c r="D93" s="48"/>
@@ -6297,7 +6297,7 @@
       <c r="L93" s="19"/>
     </row>
     <row r="94" spans="1:12" ht="30">
-      <c r="A94" s="51"/>
+      <c r="A94" s="63"/>
       <c r="B94" s="45"/>
       <c r="C94" s="45"/>
       <c r="D94" s="48"/>
@@ -6325,7 +6325,7 @@
       <c r="L94" s="19"/>
     </row>
     <row r="95" spans="1:12" ht="30">
-      <c r="A95" s="51"/>
+      <c r="A95" s="63"/>
       <c r="B95" s="45"/>
       <c r="C95" s="45"/>
       <c r="D95" s="48"/>
@@ -6353,7 +6353,7 @@
       <c r="L95" s="19"/>
     </row>
     <row r="96" spans="1:12" ht="30">
-      <c r="A96" s="51"/>
+      <c r="A96" s="63"/>
       <c r="B96" s="45"/>
       <c r="C96" s="45"/>
       <c r="D96" s="48"/>
@@ -6381,7 +6381,7 @@
       <c r="L96" s="19"/>
     </row>
     <row r="97" spans="1:12" ht="45">
-      <c r="A97" s="51"/>
+      <c r="A97" s="63"/>
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
       <c r="D97" s="48"/>
@@ -6409,7 +6409,7 @@
       <c r="L97" s="19"/>
     </row>
     <row r="98" spans="1:12" ht="30">
-      <c r="A98" s="51"/>
+      <c r="A98" s="63"/>
       <c r="B98" s="45"/>
       <c r="C98" s="45"/>
       <c r="D98" s="48"/>
@@ -6437,7 +6437,7 @@
       <c r="L98" s="19"/>
     </row>
     <row r="99" spans="1:12" ht="30">
-      <c r="A99" s="51"/>
+      <c r="A99" s="63"/>
       <c r="B99" s="45"/>
       <c r="C99" s="45"/>
       <c r="D99" s="48"/>
@@ -6465,7 +6465,7 @@
       <c r="L99" s="19"/>
     </row>
     <row r="100" spans="1:12" ht="30">
-      <c r="A100" s="51"/>
+      <c r="A100" s="63"/>
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
       <c r="D100" s="48"/>
@@ -6493,7 +6493,7 @@
       <c r="L100" s="19"/>
     </row>
     <row r="101" spans="1:12" ht="38.25">
-      <c r="A101" s="52"/>
+      <c r="A101" s="64"/>
       <c r="B101" s="46"/>
       <c r="C101" s="46"/>
       <c r="D101" s="49"/>
@@ -6519,16 +6519,16 @@
       <c r="L101" s="19"/>
     </row>
     <row r="102" spans="1:12" ht="45">
-      <c r="A102" s="53" t="s">
+      <c r="A102" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="B102" s="56" t="s">
+      <c r="B102" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="C102" s="56" t="s">
+      <c r="C102" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="D102" s="59" t="s">
+      <c r="D102" s="53" t="s">
         <v>640</v>
       </c>
       <c r="E102" s="37" t="s">
@@ -6555,10 +6555,10 @@
       <c r="L102" s="6"/>
     </row>
     <row r="103" spans="1:12" ht="30">
-      <c r="A103" s="54"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="60"/>
+      <c r="A103" s="57"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="54"/>
       <c r="E103" s="37" t="s">
         <v>13</v>
       </c>
@@ -6581,10 +6581,10 @@
       <c r="L103" s="6"/>
     </row>
     <row r="104" spans="1:12" ht="30">
-      <c r="A104" s="54"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="60"/>
+      <c r="A104" s="57"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="54"/>
       <c r="E104" s="37" t="s">
         <v>14</v>
       </c>
@@ -6607,10 +6607,10 @@
       <c r="L104" s="6"/>
     </row>
     <row r="105" spans="1:12" ht="30">
-      <c r="A105" s="54"/>
-      <c r="B105" s="57"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="60"/>
+      <c r="A105" s="57"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="54"/>
       <c r="E105" s="37" t="s">
         <v>15</v>
       </c>
@@ -6635,10 +6635,10 @@
       <c r="L105" s="6"/>
     </row>
     <row r="106" spans="1:12" ht="30">
-      <c r="A106" s="54"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="60"/>
+      <c r="A106" s="57"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="54"/>
       <c r="E106" s="37" t="s">
         <v>16</v>
       </c>
@@ -6663,10 +6663,10 @@
       <c r="L106" s="6"/>
     </row>
     <row r="107" spans="1:12" ht="30">
-      <c r="A107" s="54"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="60"/>
+      <c r="A107" s="57"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="54"/>
       <c r="E107" s="37" t="s">
         <v>17</v>
       </c>
@@ -6691,10 +6691,10 @@
       <c r="L107" s="6"/>
     </row>
     <row r="108" spans="1:12" ht="30">
-      <c r="A108" s="54"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="60"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="54"/>
       <c r="E108" s="37" t="s">
         <v>18</v>
       </c>
@@ -6719,10 +6719,10 @@
       <c r="L108" s="6"/>
     </row>
     <row r="109" spans="1:12" ht="30">
-      <c r="A109" s="54"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="57"/>
-      <c r="D109" s="60"/>
+      <c r="A109" s="57"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="54"/>
       <c r="E109" s="37" t="s">
         <v>19</v>
       </c>
@@ -6747,10 +6747,10 @@
       <c r="L109" s="6"/>
     </row>
     <row r="110" spans="1:12" ht="45">
-      <c r="A110" s="54"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="60"/>
+      <c r="A110" s="57"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="54"/>
       <c r="E110" s="37" t="s">
         <v>20</v>
       </c>
@@ -6775,10 +6775,10 @@
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="1:12" ht="45">
-      <c r="A111" s="54"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="60"/>
+      <c r="A111" s="57"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="60"/>
+      <c r="D111" s="54"/>
       <c r="E111" s="37" t="s">
         <v>21</v>
       </c>
@@ -6803,10 +6803,10 @@
       <c r="L111" s="6"/>
     </row>
     <row r="112" spans="1:12" ht="30">
-      <c r="A112" s="54"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="60"/>
+      <c r="A112" s="57"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="60"/>
+      <c r="D112" s="54"/>
       <c r="E112" s="37" t="s">
         <v>22</v>
       </c>
@@ -6829,10 +6829,10 @@
       <c r="L112" s="6"/>
     </row>
     <row r="113" spans="1:12" ht="30">
-      <c r="A113" s="54"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="57"/>
-      <c r="D113" s="60"/>
+      <c r="A113" s="57"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="54"/>
       <c r="E113" s="37" t="s">
         <v>23</v>
       </c>
@@ -6857,10 +6857,10 @@
       <c r="L113" s="6"/>
     </row>
     <row r="114" spans="1:12" ht="38.25">
-      <c r="A114" s="55"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="58"/>
-      <c r="D114" s="61"/>
+      <c r="A114" s="58"/>
+      <c r="B114" s="61"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="55"/>
       <c r="E114" s="37" t="s">
         <v>24</v>
       </c>
@@ -6883,7 +6883,7 @@
       <c r="L114" s="6"/>
     </row>
     <row r="115" spans="1:12" ht="45">
-      <c r="A115" s="50" t="s">
+      <c r="A115" s="62" t="s">
         <v>330</v>
       </c>
       <c r="B115" s="44" t="s">
@@ -6919,7 +6919,7 @@
       <c r="L115" s="19"/>
     </row>
     <row r="116" spans="1:12" ht="30">
-      <c r="A116" s="51"/>
+      <c r="A116" s="63"/>
       <c r="B116" s="45"/>
       <c r="C116" s="45"/>
       <c r="D116" s="48"/>
@@ -6945,7 +6945,7 @@
       <c r="L116" s="19"/>
     </row>
     <row r="117" spans="1:12" ht="45">
-      <c r="A117" s="51"/>
+      <c r="A117" s="63"/>
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
       <c r="D117" s="48"/>
@@ -6973,7 +6973,7 @@
       <c r="L117" s="19"/>
     </row>
     <row r="118" spans="1:12" ht="45">
-      <c r="A118" s="51"/>
+      <c r="A118" s="63"/>
       <c r="B118" s="45"/>
       <c r="C118" s="45"/>
       <c r="D118" s="48"/>
@@ -7001,7 +7001,7 @@
       <c r="L118" s="19"/>
     </row>
     <row r="119" spans="1:12" ht="45">
-      <c r="A119" s="51"/>
+      <c r="A119" s="63"/>
       <c r="B119" s="45"/>
       <c r="C119" s="45"/>
       <c r="D119" s="48"/>
@@ -7029,7 +7029,7 @@
       <c r="L119" s="19"/>
     </row>
     <row r="120" spans="1:12" ht="30">
-      <c r="A120" s="51"/>
+      <c r="A120" s="63"/>
       <c r="B120" s="45"/>
       <c r="C120" s="45"/>
       <c r="D120" s="48"/>
@@ -7057,7 +7057,7 @@
       <c r="L120" s="19"/>
     </row>
     <row r="121" spans="1:12" ht="30">
-      <c r="A121" s="51"/>
+      <c r="A121" s="63"/>
       <c r="B121" s="45"/>
       <c r="C121" s="45"/>
       <c r="D121" s="48"/>
@@ -7085,7 +7085,7 @@
       <c r="L121" s="19"/>
     </row>
     <row r="122" spans="1:12" ht="30">
-      <c r="A122" s="51"/>
+      <c r="A122" s="63"/>
       <c r="B122" s="45"/>
       <c r="C122" s="45"/>
       <c r="D122" s="48"/>
@@ -7113,7 +7113,7 @@
       <c r="L122" s="19"/>
     </row>
     <row r="123" spans="1:12" ht="30">
-      <c r="A123" s="51"/>
+      <c r="A123" s="63"/>
       <c r="B123" s="45"/>
       <c r="C123" s="45"/>
       <c r="D123" s="48"/>
@@ -7141,7 +7141,7 @@
       <c r="L123" s="19"/>
     </row>
     <row r="124" spans="1:12" ht="30">
-      <c r="A124" s="51"/>
+      <c r="A124" s="63"/>
       <c r="B124" s="45"/>
       <c r="C124" s="45"/>
       <c r="D124" s="48"/>
@@ -7169,7 +7169,7 @@
       <c r="L124" s="19"/>
     </row>
     <row r="125" spans="1:12" ht="30">
-      <c r="A125" s="51"/>
+      <c r="A125" s="63"/>
       <c r="B125" s="45"/>
       <c r="C125" s="45"/>
       <c r="D125" s="48"/>
@@ -7197,7 +7197,7 @@
       <c r="L125" s="19"/>
     </row>
     <row r="126" spans="1:12" ht="30">
-      <c r="A126" s="51"/>
+      <c r="A126" s="63"/>
       <c r="B126" s="45"/>
       <c r="C126" s="45"/>
       <c r="D126" s="48"/>
@@ -7225,7 +7225,7 @@
       <c r="L126" s="19"/>
     </row>
     <row r="127" spans="1:12" ht="30">
-      <c r="A127" s="51"/>
+      <c r="A127" s="63"/>
       <c r="B127" s="45"/>
       <c r="C127" s="45"/>
       <c r="D127" s="48"/>
@@ -7253,7 +7253,7 @@
       <c r="L127" s="19"/>
     </row>
     <row r="128" spans="1:12" ht="30">
-      <c r="A128" s="51"/>
+      <c r="A128" s="63"/>
       <c r="B128" s="45"/>
       <c r="C128" s="45"/>
       <c r="D128" s="48"/>
@@ -7281,7 +7281,7 @@
       <c r="L128" s="19"/>
     </row>
     <row r="129" spans="1:12" ht="30">
-      <c r="A129" s="51"/>
+      <c r="A129" s="63"/>
       <c r="B129" s="45"/>
       <c r="C129" s="45"/>
       <c r="D129" s="48"/>
@@ -7309,7 +7309,7 @@
       <c r="L129" s="19"/>
     </row>
     <row r="130" spans="1:12" ht="30">
-      <c r="A130" s="51"/>
+      <c r="A130" s="63"/>
       <c r="B130" s="45"/>
       <c r="C130" s="45"/>
       <c r="D130" s="48"/>
@@ -7337,7 +7337,7 @@
       <c r="L130" s="19"/>
     </row>
     <row r="131" spans="1:12" ht="30">
-      <c r="A131" s="51"/>
+      <c r="A131" s="63"/>
       <c r="B131" s="45"/>
       <c r="C131" s="45"/>
       <c r="D131" s="48"/>
@@ -7365,7 +7365,7 @@
       <c r="L131" s="19"/>
     </row>
     <row r="132" spans="1:12" ht="45">
-      <c r="A132" s="51"/>
+      <c r="A132" s="63"/>
       <c r="B132" s="45"/>
       <c r="C132" s="45"/>
       <c r="D132" s="48"/>
@@ -7393,7 +7393,7 @@
       <c r="L132" s="19"/>
     </row>
     <row r="133" spans="1:12" ht="45">
-      <c r="A133" s="51"/>
+      <c r="A133" s="63"/>
       <c r="B133" s="45"/>
       <c r="C133" s="45"/>
       <c r="D133" s="48"/>
@@ -7419,7 +7419,7 @@
       <c r="L133" s="19"/>
     </row>
     <row r="134" spans="1:12" ht="30">
-      <c r="A134" s="51"/>
+      <c r="A134" s="63"/>
       <c r="B134" s="45"/>
       <c r="C134" s="45"/>
       <c r="D134" s="48"/>
@@ -7447,7 +7447,7 @@
       <c r="L134" s="19"/>
     </row>
     <row r="135" spans="1:12" ht="38.25">
-      <c r="A135" s="52"/>
+      <c r="A135" s="64"/>
       <c r="B135" s="46"/>
       <c r="C135" s="46"/>
       <c r="D135" s="49"/>
@@ -7473,16 +7473,16 @@
       <c r="L135" s="19"/>
     </row>
     <row r="136" spans="1:12" ht="45">
-      <c r="A136" s="53" t="s">
+      <c r="A136" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="B136" s="56" t="s">
+      <c r="B136" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="C136" s="56" t="s">
+      <c r="C136" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="D136" s="59" t="s">
+      <c r="D136" s="53" t="s">
         <v>640</v>
       </c>
       <c r="E136" s="37" t="s">
@@ -7509,10 +7509,10 @@
       <c r="L136" s="6"/>
     </row>
     <row r="137" spans="1:12" ht="30">
-      <c r="A137" s="54"/>
-      <c r="B137" s="57"/>
-      <c r="C137" s="57"/>
-      <c r="D137" s="60"/>
+      <c r="A137" s="57"/>
+      <c r="B137" s="60"/>
+      <c r="C137" s="60"/>
+      <c r="D137" s="54"/>
       <c r="E137" s="37" t="s">
         <v>13</v>
       </c>
@@ -7535,10 +7535,10 @@
       <c r="L137" s="6"/>
     </row>
     <row r="138" spans="1:12" ht="30">
-      <c r="A138" s="54"/>
-      <c r="B138" s="57"/>
-      <c r="C138" s="57"/>
-      <c r="D138" s="60"/>
+      <c r="A138" s="57"/>
+      <c r="B138" s="60"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="54"/>
       <c r="E138" s="37" t="s">
         <v>14</v>
       </c>
@@ -7563,10 +7563,10 @@
       <c r="L138" s="6"/>
     </row>
     <row r="139" spans="1:12" ht="45">
-      <c r="A139" s="54"/>
-      <c r="B139" s="57"/>
-      <c r="C139" s="57"/>
-      <c r="D139" s="60"/>
+      <c r="A139" s="57"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="60"/>
+      <c r="D139" s="54"/>
       <c r="E139" s="37" t="s">
         <v>15</v>
       </c>
@@ -7589,10 +7589,10 @@
       <c r="L139" s="6"/>
     </row>
     <row r="140" spans="1:12" ht="45">
-      <c r="A140" s="54"/>
-      <c r="B140" s="57"/>
-      <c r="C140" s="57"/>
-      <c r="D140" s="60"/>
+      <c r="A140" s="57"/>
+      <c r="B140" s="60"/>
+      <c r="C140" s="60"/>
+      <c r="D140" s="54"/>
       <c r="E140" s="37" t="s">
         <v>16</v>
       </c>
@@ -7617,10 +7617,10 @@
       <c r="L140" s="6"/>
     </row>
     <row r="141" spans="1:12" ht="30">
-      <c r="A141" s="54"/>
-      <c r="B141" s="57"/>
-      <c r="C141" s="57"/>
-      <c r="D141" s="60"/>
+      <c r="A141" s="57"/>
+      <c r="B141" s="60"/>
+      <c r="C141" s="60"/>
+      <c r="D141" s="54"/>
       <c r="E141" s="37" t="s">
         <v>17</v>
       </c>
@@ -7645,10 +7645,10 @@
       <c r="L141" s="6"/>
     </row>
     <row r="142" spans="1:12" ht="30">
-      <c r="A142" s="54"/>
-      <c r="B142" s="57"/>
-      <c r="C142" s="57"/>
-      <c r="D142" s="60"/>
+      <c r="A142" s="57"/>
+      <c r="B142" s="60"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="54"/>
       <c r="E142" s="37" t="s">
         <v>18</v>
       </c>
@@ -7673,10 +7673,10 @@
       <c r="L142" s="6"/>
     </row>
     <row r="143" spans="1:12" ht="76.5">
-      <c r="A143" s="54"/>
-      <c r="B143" s="57"/>
-      <c r="C143" s="57"/>
-      <c r="D143" s="60"/>
+      <c r="A143" s="57"/>
+      <c r="B143" s="60"/>
+      <c r="C143" s="60"/>
+      <c r="D143" s="54"/>
       <c r="E143" s="37" t="s">
         <v>19</v>
       </c>
@@ -7701,10 +7701,10 @@
       <c r="L143" s="6"/>
     </row>
     <row r="144" spans="1:12" ht="30">
-      <c r="A144" s="54"/>
-      <c r="B144" s="57"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="60"/>
+      <c r="A144" s="57"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="54"/>
       <c r="E144" s="37" t="s">
         <v>20</v>
       </c>
@@ -7729,10 +7729,10 @@
       <c r="L144" s="6"/>
     </row>
     <row r="145" spans="1:12" ht="30">
-      <c r="A145" s="54"/>
-      <c r="B145" s="57"/>
-      <c r="C145" s="57"/>
-      <c r="D145" s="60"/>
+      <c r="A145" s="57"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="54"/>
       <c r="E145" s="37" t="s">
         <v>21</v>
       </c>
@@ -7757,10 +7757,10 @@
       <c r="L145" s="6"/>
     </row>
     <row r="146" spans="1:12" ht="30">
-      <c r="A146" s="54"/>
-      <c r="B146" s="57"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="60"/>
+      <c r="A146" s="57"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="54"/>
       <c r="E146" s="37" t="s">
         <v>22</v>
       </c>
@@ -7785,10 +7785,10 @@
       <c r="L146" s="6"/>
     </row>
     <row r="147" spans="1:12" ht="30">
-      <c r="A147" s="54"/>
-      <c r="B147" s="57"/>
-      <c r="C147" s="57"/>
-      <c r="D147" s="60"/>
+      <c r="A147" s="57"/>
+      <c r="B147" s="60"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="54"/>
       <c r="E147" s="37" t="s">
         <v>23</v>
       </c>
@@ -7813,10 +7813,10 @@
       <c r="L147" s="6"/>
     </row>
     <row r="148" spans="1:12" ht="30">
-      <c r="A148" s="54"/>
-      <c r="B148" s="57"/>
-      <c r="C148" s="57"/>
-      <c r="D148" s="60"/>
+      <c r="A148" s="57"/>
+      <c r="B148" s="60"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="54"/>
       <c r="E148" s="37" t="s">
         <v>24</v>
       </c>
@@ -7841,10 +7841,10 @@
       <c r="L148" s="6"/>
     </row>
     <row r="149" spans="1:12" ht="30">
-      <c r="A149" s="54"/>
-      <c r="B149" s="57"/>
-      <c r="C149" s="57"/>
-      <c r="D149" s="60"/>
+      <c r="A149" s="57"/>
+      <c r="B149" s="60"/>
+      <c r="C149" s="60"/>
+      <c r="D149" s="54"/>
       <c r="E149" s="37" t="s">
         <v>25</v>
       </c>
@@ -7869,10 +7869,10 @@
       <c r="L149" s="6"/>
     </row>
     <row r="150" spans="1:12" ht="45">
-      <c r="A150" s="54"/>
-      <c r="B150" s="57"/>
-      <c r="C150" s="57"/>
-      <c r="D150" s="60"/>
+      <c r="A150" s="57"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="54"/>
       <c r="E150" s="37" t="s">
         <v>54</v>
       </c>
@@ -7897,10 +7897,10 @@
       <c r="L150" s="6"/>
     </row>
     <row r="151" spans="1:12" ht="30">
-      <c r="A151" s="54"/>
-      <c r="B151" s="57"/>
-      <c r="C151" s="57"/>
-      <c r="D151" s="60"/>
+      <c r="A151" s="57"/>
+      <c r="B151" s="60"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="54"/>
       <c r="E151" s="37" t="s">
         <v>143</v>
       </c>
@@ -7925,10 +7925,10 @@
       <c r="L151" s="6"/>
     </row>
     <row r="152" spans="1:12" ht="30">
-      <c r="A152" s="54"/>
-      <c r="B152" s="57"/>
-      <c r="C152" s="57"/>
-      <c r="D152" s="60"/>
+      <c r="A152" s="57"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="54"/>
       <c r="E152" s="37" t="s">
         <v>165</v>
       </c>
@@ -7953,10 +7953,10 @@
       <c r="L152" s="6"/>
     </row>
     <row r="153" spans="1:12" ht="45">
-      <c r="A153" s="54"/>
-      <c r="B153" s="57"/>
-      <c r="C153" s="57"/>
-      <c r="D153" s="60"/>
+      <c r="A153" s="57"/>
+      <c r="B153" s="60"/>
+      <c r="C153" s="60"/>
+      <c r="D153" s="54"/>
       <c r="E153" s="37" t="s">
         <v>166</v>
       </c>
@@ -7981,10 +7981,10 @@
       <c r="L153" s="6"/>
     </row>
     <row r="154" spans="1:12" ht="45">
-      <c r="A154" s="54"/>
-      <c r="B154" s="57"/>
-      <c r="C154" s="57"/>
-      <c r="D154" s="60"/>
+      <c r="A154" s="57"/>
+      <c r="B154" s="60"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="54"/>
       <c r="E154" s="37" t="s">
         <v>167</v>
       </c>
@@ -8009,10 +8009,10 @@
       <c r="L154" s="6"/>
     </row>
     <row r="155" spans="1:12" ht="30">
-      <c r="A155" s="54"/>
-      <c r="B155" s="57"/>
-      <c r="C155" s="57"/>
-      <c r="D155" s="60"/>
+      <c r="A155" s="57"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="60"/>
+      <c r="D155" s="54"/>
       <c r="E155" s="37" t="s">
         <v>168</v>
       </c>
@@ -8037,10 +8037,10 @@
       <c r="L155" s="6"/>
     </row>
     <row r="156" spans="1:12" ht="45">
-      <c r="A156" s="54"/>
-      <c r="B156" s="57"/>
-      <c r="C156" s="57"/>
-      <c r="D156" s="60"/>
+      <c r="A156" s="57"/>
+      <c r="B156" s="60"/>
+      <c r="C156" s="60"/>
+      <c r="D156" s="54"/>
       <c r="E156" s="37" t="s">
         <v>177</v>
       </c>
@@ -8065,10 +8065,10 @@
       <c r="L156" s="6"/>
     </row>
     <row r="157" spans="1:12" ht="30">
-      <c r="A157" s="54"/>
-      <c r="B157" s="57"/>
-      <c r="C157" s="57"/>
-      <c r="D157" s="60"/>
+      <c r="A157" s="57"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="60"/>
+      <c r="D157" s="54"/>
       <c r="E157" s="37" t="s">
         <v>178</v>
       </c>
@@ -8093,10 +8093,10 @@
       <c r="L157" s="6"/>
     </row>
     <row r="158" spans="1:12" ht="30">
-      <c r="A158" s="54"/>
-      <c r="B158" s="57"/>
-      <c r="C158" s="57"/>
-      <c r="D158" s="60"/>
+      <c r="A158" s="57"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="60"/>
+      <c r="D158" s="54"/>
       <c r="E158" s="37" t="s">
         <v>179</v>
       </c>
@@ -8121,10 +8121,10 @@
       <c r="L158" s="6"/>
     </row>
     <row r="159" spans="1:12" ht="30">
-      <c r="A159" s="54"/>
-      <c r="B159" s="57"/>
-      <c r="C159" s="57"/>
-      <c r="D159" s="60"/>
+      <c r="A159" s="57"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="54"/>
       <c r="E159" s="37" t="s">
         <v>183</v>
       </c>
@@ -8149,10 +8149,10 @@
       <c r="L159" s="6"/>
     </row>
     <row r="160" spans="1:12" ht="30">
-      <c r="A160" s="54"/>
-      <c r="B160" s="57"/>
-      <c r="C160" s="57"/>
-      <c r="D160" s="60"/>
+      <c r="A160" s="57"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="60"/>
+      <c r="D160" s="54"/>
       <c r="E160" s="37" t="s">
         <v>184</v>
       </c>
@@ -8177,10 +8177,10 @@
       <c r="L160" s="6"/>
     </row>
     <row r="161" spans="1:12" ht="30">
-      <c r="A161" s="54"/>
-      <c r="B161" s="57"/>
-      <c r="C161" s="57"/>
-      <c r="D161" s="60"/>
+      <c r="A161" s="57"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="60"/>
+      <c r="D161" s="54"/>
       <c r="E161" s="37" t="s">
         <v>185</v>
       </c>
@@ -8205,10 +8205,10 @@
       <c r="L161" s="6"/>
     </row>
     <row r="162" spans="1:12" ht="30">
-      <c r="A162" s="54"/>
-      <c r="B162" s="57"/>
-      <c r="C162" s="57"/>
-      <c r="D162" s="60"/>
+      <c r="A162" s="57"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
+      <c r="D162" s="54"/>
       <c r="E162" s="37" t="s">
         <v>419</v>
       </c>
@@ -8233,10 +8233,10 @@
       <c r="L162" s="6"/>
     </row>
     <row r="163" spans="1:12" ht="30">
-      <c r="A163" s="54"/>
-      <c r="B163" s="57"/>
-      <c r="C163" s="57"/>
-      <c r="D163" s="60"/>
+      <c r="A163" s="57"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="60"/>
+      <c r="D163" s="54"/>
       <c r="E163" s="37" t="s">
         <v>420</v>
       </c>
@@ -8261,10 +8261,10 @@
       <c r="L163" s="6"/>
     </row>
     <row r="164" spans="1:12" ht="30">
-      <c r="A164" s="54"/>
-      <c r="B164" s="57"/>
-      <c r="C164" s="57"/>
-      <c r="D164" s="60"/>
+      <c r="A164" s="57"/>
+      <c r="B164" s="60"/>
+      <c r="C164" s="60"/>
+      <c r="D164" s="54"/>
       <c r="E164" s="37" t="s">
         <v>421</v>
       </c>
@@ -8289,10 +8289,10 @@
       <c r="L164" s="6"/>
     </row>
     <row r="165" spans="1:12" ht="30">
-      <c r="A165" s="54"/>
-      <c r="B165" s="57"/>
-      <c r="C165" s="57"/>
-      <c r="D165" s="60"/>
+      <c r="A165" s="57"/>
+      <c r="B165" s="60"/>
+      <c r="C165" s="60"/>
+      <c r="D165" s="54"/>
       <c r="E165" s="37" t="s">
         <v>422</v>
       </c>
@@ -8317,10 +8317,10 @@
       <c r="L165" s="6"/>
     </row>
     <row r="166" spans="1:12" ht="45">
-      <c r="A166" s="54"/>
-      <c r="B166" s="57"/>
-      <c r="C166" s="57"/>
-      <c r="D166" s="60"/>
+      <c r="A166" s="57"/>
+      <c r="B166" s="60"/>
+      <c r="C166" s="60"/>
+      <c r="D166" s="54"/>
       <c r="E166" s="37" t="s">
         <v>423</v>
       </c>
@@ -8345,10 +8345,10 @@
       <c r="L166" s="6"/>
     </row>
     <row r="167" spans="1:12" ht="45">
-      <c r="A167" s="54"/>
-      <c r="B167" s="57"/>
-      <c r="C167" s="57"/>
-      <c r="D167" s="60"/>
+      <c r="A167" s="57"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="60"/>
+      <c r="D167" s="54"/>
       <c r="E167" s="37" t="s">
         <v>424</v>
       </c>
@@ -8373,10 +8373,10 @@
       <c r="L167" s="6"/>
     </row>
     <row r="168" spans="1:12" ht="45">
-      <c r="A168" s="54"/>
-      <c r="B168" s="57"/>
-      <c r="C168" s="57"/>
-      <c r="D168" s="60"/>
+      <c r="A168" s="57"/>
+      <c r="B168" s="60"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="54"/>
       <c r="E168" s="37" t="s">
         <v>425</v>
       </c>
@@ -8401,10 +8401,10 @@
       <c r="L168" s="6"/>
     </row>
     <row r="169" spans="1:12" ht="45">
-      <c r="A169" s="54"/>
-      <c r="B169" s="57"/>
-      <c r="C169" s="57"/>
-      <c r="D169" s="60"/>
+      <c r="A169" s="57"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="60"/>
+      <c r="D169" s="54"/>
       <c r="E169" s="37" t="s">
         <v>426</v>
       </c>
@@ -8429,10 +8429,10 @@
       <c r="L169" s="6"/>
     </row>
     <row r="170" spans="1:12" ht="30">
-      <c r="A170" s="54"/>
-      <c r="B170" s="57"/>
-      <c r="C170" s="57"/>
-      <c r="D170" s="60"/>
+      <c r="A170" s="57"/>
+      <c r="B170" s="60"/>
+      <c r="C170" s="60"/>
+      <c r="D170" s="54"/>
       <c r="E170" s="37" t="s">
         <v>427</v>
       </c>
@@ -8457,10 +8457,10 @@
       <c r="L170" s="6"/>
     </row>
     <row r="171" spans="1:12" ht="30">
-      <c r="A171" s="54"/>
-      <c r="B171" s="57"/>
-      <c r="C171" s="57"/>
-      <c r="D171" s="60"/>
+      <c r="A171" s="57"/>
+      <c r="B171" s="60"/>
+      <c r="C171" s="60"/>
+      <c r="D171" s="54"/>
       <c r="E171" s="37" t="s">
         <v>428</v>
       </c>
@@ -8485,10 +8485,10 @@
       <c r="L171" s="6"/>
     </row>
     <row r="172" spans="1:12" ht="30">
-      <c r="A172" s="54"/>
-      <c r="B172" s="57"/>
-      <c r="C172" s="57"/>
-      <c r="D172" s="60"/>
+      <c r="A172" s="57"/>
+      <c r="B172" s="60"/>
+      <c r="C172" s="60"/>
+      <c r="D172" s="54"/>
       <c r="E172" s="37" t="s">
         <v>429</v>
       </c>
@@ -8513,10 +8513,10 @@
       <c r="L172" s="6"/>
     </row>
     <row r="173" spans="1:12" ht="45">
-      <c r="A173" s="54"/>
-      <c r="B173" s="57"/>
-      <c r="C173" s="57"/>
-      <c r="D173" s="60"/>
+      <c r="A173" s="57"/>
+      <c r="B173" s="60"/>
+      <c r="C173" s="60"/>
+      <c r="D173" s="54"/>
       <c r="E173" s="37" t="s">
         <v>430</v>
       </c>
@@ -8541,10 +8541,10 @@
       <c r="L173" s="6"/>
     </row>
     <row r="174" spans="1:12" ht="60">
-      <c r="A174" s="54"/>
-      <c r="B174" s="57"/>
-      <c r="C174" s="57"/>
-      <c r="D174" s="60"/>
+      <c r="A174" s="57"/>
+      <c r="B174" s="60"/>
+      <c r="C174" s="60"/>
+      <c r="D174" s="54"/>
       <c r="E174" s="37" t="s">
         <v>431</v>
       </c>
@@ -8569,10 +8569,10 @@
       <c r="L174" s="6"/>
     </row>
     <row r="175" spans="1:12" ht="30">
-      <c r="A175" s="54"/>
-      <c r="B175" s="57"/>
-      <c r="C175" s="57"/>
-      <c r="D175" s="60"/>
+      <c r="A175" s="57"/>
+      <c r="B175" s="60"/>
+      <c r="C175" s="60"/>
+      <c r="D175" s="54"/>
       <c r="E175" s="37" t="s">
         <v>432</v>
       </c>
@@ -8597,10 +8597,10 @@
       <c r="L175" s="6"/>
     </row>
     <row r="176" spans="1:12" ht="30">
-      <c r="A176" s="54"/>
-      <c r="B176" s="57"/>
-      <c r="C176" s="57"/>
-      <c r="D176" s="60"/>
+      <c r="A176" s="57"/>
+      <c r="B176" s="60"/>
+      <c r="C176" s="60"/>
+      <c r="D176" s="54"/>
       <c r="E176" s="37" t="s">
         <v>433</v>
       </c>
@@ -8625,10 +8625,10 @@
       <c r="L176" s="6"/>
     </row>
     <row r="177" spans="1:12" ht="30">
-      <c r="A177" s="54"/>
-      <c r="B177" s="57"/>
-      <c r="C177" s="57"/>
-      <c r="D177" s="60"/>
+      <c r="A177" s="57"/>
+      <c r="B177" s="60"/>
+      <c r="C177" s="60"/>
+      <c r="D177" s="54"/>
       <c r="E177" s="37" t="s">
         <v>434</v>
       </c>
@@ -8653,10 +8653,10 @@
       <c r="L177" s="6"/>
     </row>
     <row r="178" spans="1:12" ht="30">
-      <c r="A178" s="54"/>
-      <c r="B178" s="57"/>
-      <c r="C178" s="57"/>
-      <c r="D178" s="60"/>
+      <c r="A178" s="57"/>
+      <c r="B178" s="60"/>
+      <c r="C178" s="60"/>
+      <c r="D178" s="54"/>
       <c r="E178" s="37" t="s">
         <v>435</v>
       </c>
@@ -8681,10 +8681,10 @@
       <c r="L178" s="6"/>
     </row>
     <row r="179" spans="1:12" ht="30">
-      <c r="A179" s="54"/>
-      <c r="B179" s="57"/>
-      <c r="C179" s="57"/>
-      <c r="D179" s="60"/>
+      <c r="A179" s="57"/>
+      <c r="B179" s="60"/>
+      <c r="C179" s="60"/>
+      <c r="D179" s="54"/>
       <c r="E179" s="37" t="s">
         <v>499</v>
       </c>
@@ -8709,10 +8709,10 @@
       <c r="L179" s="6"/>
     </row>
     <row r="180" spans="1:12" ht="30">
-      <c r="A180" s="54"/>
-      <c r="B180" s="57"/>
-      <c r="C180" s="57"/>
-      <c r="D180" s="60"/>
+      <c r="A180" s="57"/>
+      <c r="B180" s="60"/>
+      <c r="C180" s="60"/>
+      <c r="D180" s="54"/>
       <c r="E180" s="37" t="s">
         <v>500</v>
       </c>
@@ -8737,10 +8737,10 @@
       <c r="L180" s="6"/>
     </row>
     <row r="181" spans="1:12" ht="45">
-      <c r="A181" s="54"/>
-      <c r="B181" s="57"/>
-      <c r="C181" s="57"/>
-      <c r="D181" s="60"/>
+      <c r="A181" s="57"/>
+      <c r="B181" s="60"/>
+      <c r="C181" s="60"/>
+      <c r="D181" s="54"/>
       <c r="E181" s="37" t="s">
         <v>501</v>
       </c>
@@ -8765,10 +8765,10 @@
       <c r="L181" s="6"/>
     </row>
     <row r="182" spans="1:12" ht="45">
-      <c r="A182" s="54"/>
-      <c r="B182" s="57"/>
-      <c r="C182" s="57"/>
-      <c r="D182" s="60"/>
+      <c r="A182" s="57"/>
+      <c r="B182" s="60"/>
+      <c r="C182" s="60"/>
+      <c r="D182" s="54"/>
       <c r="E182" s="37" t="s">
         <v>744</v>
       </c>
@@ -8793,10 +8793,10 @@
       <c r="L182" s="6"/>
     </row>
     <row r="183" spans="1:12" ht="30">
-      <c r="A183" s="54"/>
-      <c r="B183" s="57"/>
-      <c r="C183" s="57"/>
-      <c r="D183" s="60"/>
+      <c r="A183" s="57"/>
+      <c r="B183" s="60"/>
+      <c r="C183" s="60"/>
+      <c r="D183" s="54"/>
       <c r="E183" s="37" t="s">
         <v>764</v>
       </c>
@@ -8821,10 +8821,10 @@
       <c r="L183" s="6"/>
     </row>
     <row r="184" spans="1:12" ht="38.25">
-      <c r="A184" s="55"/>
-      <c r="B184" s="58"/>
-      <c r="C184" s="58"/>
-      <c r="D184" s="61"/>
+      <c r="A184" s="58"/>
+      <c r="B184" s="61"/>
+      <c r="C184" s="61"/>
+      <c r="D184" s="55"/>
       <c r="E184" s="37" t="s">
         <v>784</v>
       </c>
@@ -8848,6 +8848,38 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A115:A135"/>
+    <mergeCell ref="B115:B135"/>
+    <mergeCell ref="C115:C135"/>
+    <mergeCell ref="D115:D135"/>
+    <mergeCell ref="A136:A184"/>
+    <mergeCell ref="B136:B184"/>
+    <mergeCell ref="C136:C184"/>
+    <mergeCell ref="D136:D184"/>
+    <mergeCell ref="A77:A101"/>
+    <mergeCell ref="B77:B101"/>
+    <mergeCell ref="C77:C101"/>
+    <mergeCell ref="D77:D101"/>
+    <mergeCell ref="A102:A114"/>
+    <mergeCell ref="B102:B114"/>
+    <mergeCell ref="C102:C114"/>
+    <mergeCell ref="D102:D114"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="C59:C65"/>
+    <mergeCell ref="D59:D65"/>
+    <mergeCell ref="A66:A76"/>
+    <mergeCell ref="B66:B76"/>
+    <mergeCell ref="C66:C76"/>
+    <mergeCell ref="D66:D76"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="C31:C46"/>
+    <mergeCell ref="D31:D46"/>
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="B47:B58"/>
+    <mergeCell ref="C47:C58"/>
+    <mergeCell ref="D47:D58"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="C2:C17"/>
@@ -8856,38 +8888,6 @@
     <mergeCell ref="B18:B30"/>
     <mergeCell ref="C18:C30"/>
     <mergeCell ref="D18:D30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="C31:C46"/>
-    <mergeCell ref="D31:D46"/>
-    <mergeCell ref="A47:A58"/>
-    <mergeCell ref="B47:B58"/>
-    <mergeCell ref="C47:C58"/>
-    <mergeCell ref="D47:D58"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="C59:C65"/>
-    <mergeCell ref="D59:D65"/>
-    <mergeCell ref="A66:A76"/>
-    <mergeCell ref="B66:B76"/>
-    <mergeCell ref="C66:C76"/>
-    <mergeCell ref="D66:D76"/>
-    <mergeCell ref="A77:A101"/>
-    <mergeCell ref="B77:B101"/>
-    <mergeCell ref="C77:C101"/>
-    <mergeCell ref="D77:D101"/>
-    <mergeCell ref="A102:A114"/>
-    <mergeCell ref="B102:B114"/>
-    <mergeCell ref="C102:C114"/>
-    <mergeCell ref="D102:D114"/>
-    <mergeCell ref="A115:A135"/>
-    <mergeCell ref="B115:B135"/>
-    <mergeCell ref="C115:C135"/>
-    <mergeCell ref="D115:D135"/>
-    <mergeCell ref="A136:A184"/>
-    <mergeCell ref="B136:B184"/>
-    <mergeCell ref="C136:C184"/>
-    <mergeCell ref="D136:D184"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G36" r:id="rId1"/>
